--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E480"/>
+  <dimension ref="A1:E484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10221,6 +10221,90 @@
       <c r="E480" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>349.7366666666667</v>
+      </c>
+      <c r="C481" t="n">
+        <v>352.0566666666667</v>
+      </c>
+      <c r="D481" t="n">
+        <v>366.17</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>351.9233333333333</v>
+      </c>
+      <c r="C482" t="n">
+        <v>353.2133333333333</v>
+      </c>
+      <c r="D482" t="n">
+        <v>366.69</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:25+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>334.7966666666667</v>
+      </c>
+      <c r="C483" t="n">
+        <v>325.4466666666667</v>
+      </c>
+      <c r="D483" t="n">
+        <v>362.83</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>357.55</v>
+      </c>
+      <c r="C484" t="n">
+        <v>355.76</v>
+      </c>
+      <c r="D484" t="n">
+        <v>365.5700000000001</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10235,7 +10319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B639"/>
+  <dimension ref="A1:B644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16633,6 +16717,56 @@
       </c>
       <c r="B639" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -16795,28 +16929,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.122116507380191</v>
+        <v>-0.1194041941776712</v>
       </c>
       <c r="J2" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K2" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006116362904323269</v>
+        <v>0.005921825471698394</v>
       </c>
       <c r="M2" t="n">
-        <v>7.614601731543668</v>
+        <v>7.614304082414547</v>
       </c>
       <c r="N2" t="n">
-        <v>110.8366563534563</v>
+        <v>110.4945565255575</v>
       </c>
       <c r="O2" t="n">
-        <v>10.52789895247178</v>
+        <v>10.5116390979503</v>
       </c>
       <c r="P2" t="n">
-        <v>350.143368973139</v>
+        <v>350.1137475595636</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16872,28 +17006,28 @@
         <v>0.0626</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09899050125517959</v>
+        <v>-0.1043119833611673</v>
       </c>
       <c r="J3" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K3" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006112973520562948</v>
+        <v>0.006773745234888162</v>
       </c>
       <c r="M3" t="n">
-        <v>6.396870823486457</v>
+        <v>6.42486344522638</v>
       </c>
       <c r="N3" t="n">
-        <v>72.81854911058491</v>
+        <v>73.61966120029091</v>
       </c>
       <c r="O3" t="n">
-        <v>8.533378528495318</v>
+        <v>8.580190044532284</v>
       </c>
       <c r="P3" t="n">
-        <v>351.8451352467399</v>
+        <v>351.9037579392175</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16949,28 +17083,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07653932590030885</v>
+        <v>0.08530455878397722</v>
       </c>
       <c r="J4" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K4" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00285286299730847</v>
+        <v>0.003598905537352426</v>
       </c>
       <c r="M4" t="n">
-        <v>7.120357484837005</v>
+        <v>7.093681523565012</v>
       </c>
       <c r="N4" t="n">
-        <v>95.87210094146131</v>
+        <v>95.19188772832109</v>
       </c>
       <c r="O4" t="n">
-        <v>9.791429974291871</v>
+        <v>9.756633011870493</v>
       </c>
       <c r="P4" t="n">
-        <v>358.7416458346328</v>
+        <v>358.6465588723926</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17007,7 +17141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E480"/>
+  <dimension ref="A1:E484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29379,6 +29513,114 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-45.369101120998046,170.864664698954</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-45.369701027665954,170.8647013229094</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-45.37022211804988,170.86519794986452</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-45.36910131849375,170.86469261200455</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-45.36969918920647,170.86471585660732</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-45.370220461156734,170.8652041580625</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:25+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-45.369099771462224,170.86447398815403</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-45.36974332231456,170.86436696384732</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-45.370232760393755,170.86515807412286</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-45.36910182665256,170.86476443705132</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-45.369695141410126,170.86474785586998</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-45.370224029849226,170.8651907865587</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -16780,7 +16780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16871,35 +16871,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16952,27 +16957,28 @@
       <c r="P2" t="n">
         <v>350.1137475595636</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.86020027606776 -45.36906944561806, 170.87145157327953 -45.369148939845964)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.8602002760678</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.36906944561806</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.8714515732795</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.36914893984596</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.8658259246736</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.36910919273201</v>
       </c>
     </row>
@@ -17029,27 +17035,28 @@
       <c r="P3" t="n">
         <v>351.9037579392175</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.8602776349946 -45.37026051598263, 170.87135218647776 -45.368859511029825)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.8602776349946</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.37026051598263</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.8713521864778</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.36885951102983</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.8658149107362</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.36956001350623</v>
       </c>
     </row>
@@ -17106,27 +17113,28 @@
       <c r="P4" t="n">
         <v>358.6465588723926</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.86082621654958 -45.371388771995804, 170.87134759952474 -45.36858063572383)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.8608262165496</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.3713887719958</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.8713475995247</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.36858063572383</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.8660869080372</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.36998470385981</v>
       </c>
     </row>

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10303,6 +10303,132 @@
         <v>365.5700000000001</v>
       </c>
       <c r="E484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>355.85</v>
+      </c>
+      <c r="C485" t="n">
+        <v>354.79</v>
+      </c>
+      <c r="D485" t="n">
+        <v>365.76</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>344.9866666666667</v>
+      </c>
+      <c r="C486" t="n">
+        <v>340.8266666666667</v>
+      </c>
+      <c r="D486" t="n">
+        <v>350.99</v>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>334.3333333333333</v>
+      </c>
+      <c r="C487" t="n">
+        <v>342.9433333333333</v>
+      </c>
+      <c r="D487" t="n">
+        <v>345.62</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>329.71</v>
+      </c>
+      <c r="C488" t="n">
+        <v>339.2</v>
+      </c>
+      <c r="D488" t="n">
+        <v>343.93</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>349.2533333333333</v>
+      </c>
+      <c r="C489" t="n">
+        <v>350.9233333333333</v>
+      </c>
+      <c r="D489" t="n">
+        <v>365.53</v>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>342.4733333333333</v>
+      </c>
+      <c r="C490" t="n">
+        <v>352.9733333333333</v>
+      </c>
+      <c r="D490" t="n">
+        <v>363.78</v>
+      </c>
+      <c r="E490" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10319,7 +10445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B644"/>
+  <dimension ref="A1:B651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16767,6 +16893,76 @@
       </c>
       <c r="B644" t="n">
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -16934,28 +17130,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.1194041941776712</v>
+        <v>-0.1312822621292378</v>
       </c>
       <c r="J2" t="n">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K2" t="n">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005921825471698394</v>
+        <v>0.007265267223243388</v>
       </c>
       <c r="M2" t="n">
-        <v>7.614304082414547</v>
+        <v>7.618377612600802</v>
       </c>
       <c r="N2" t="n">
-        <v>110.4945565255575</v>
+        <v>110.2788035637349</v>
       </c>
       <c r="O2" t="n">
-        <v>10.5116390979503</v>
+        <v>10.50137150869994</v>
       </c>
       <c r="P2" t="n">
-        <v>350.1137475595636</v>
+        <v>350.2452516204581</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17012,28 +17208,28 @@
         <v>0.0626</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1043119833611673</v>
+        <v>-0.1108501945939875</v>
       </c>
       <c r="J3" t="n">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K3" t="n">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006773745234888162</v>
+        <v>0.007798142057262925</v>
       </c>
       <c r="M3" t="n">
-        <v>6.42486344522638</v>
+        <v>6.420109501746921</v>
       </c>
       <c r="N3" t="n">
-        <v>73.61966120029091</v>
+        <v>73.19397919214013</v>
       </c>
       <c r="O3" t="n">
-        <v>8.580190044532284</v>
+        <v>8.555347987787529</v>
       </c>
       <c r="P3" t="n">
-        <v>351.9037579392175</v>
+        <v>351.9761775525636</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17090,28 +17286,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08530455878397722</v>
+        <v>0.07166463439700202</v>
       </c>
       <c r="J4" t="n">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K4" t="n">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003598905537352426</v>
+        <v>0.002572350126221479</v>
       </c>
       <c r="M4" t="n">
-        <v>7.093681523565012</v>
+        <v>7.126465212457771</v>
       </c>
       <c r="N4" t="n">
-        <v>95.19188772832109</v>
+        <v>95.40337283332599</v>
       </c>
       <c r="O4" t="n">
-        <v>9.756633011870493</v>
+        <v>9.767465015720608</v>
       </c>
       <c r="P4" t="n">
-        <v>358.6465588723926</v>
+        <v>358.7960707553885</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17149,7 +17345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29629,6 +29825,168 @@
         </is>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-45.36910167312593,170.86474273635562</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-45.36969668317654,170.86473566766966</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-45.37022342444616,170.86519305493894</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-45.3691006919633,170.86460406466125</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-45.369718877050126,170.864560216154</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-45.37027048643233,170.86501671808315</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-45.36909972960406,170.86446807365164</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-45.369715512754034,170.86458681241726</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-45.370287596916256,170.8649526063732</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-45.369099311909025,170.86440905627998</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-45.36972146252068,170.86453977681896</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-45.370292981772295,170.86493242968206</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-45.36910107734335,170.86465852914867</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-45.369702829036555,170.8646870823976</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-45.3702241573025,170.865190309005</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-45.3691004649382,170.86457198167494</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-45.36969957067372,170.8647128409698</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-45.37022973338122,170.8651694160269</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10429,6 +10429,86 @@
         <v>363.78</v>
       </c>
       <c r="E490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>359.8633333333333</v>
+      </c>
+      <c r="C491" t="n">
+        <v>359.4933333333333</v>
+      </c>
+      <c r="D491" t="n">
+        <v>368.81</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:13:46+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="n">
+        <v>355.32</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>360.3433333333333</v>
+      </c>
+      <c r="C493" t="n">
+        <v>361.5233333333333</v>
+      </c>
+      <c r="D493" t="n">
+        <v>373.66</v>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>331.09</v>
+      </c>
+      <c r="C494" t="n">
+        <v>333.26</v>
+      </c>
+      <c r="D494" t="n">
+        <v>343.29</v>
+      </c>
+      <c r="E494" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10445,7 +10525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B651"/>
+  <dimension ref="A1:B656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16963,6 +17043,56 @@
       </c>
       <c r="B651" t="n">
         <v>-0.91</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -17130,28 +17260,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.1312822621292378</v>
+        <v>-0.1264321940520159</v>
       </c>
       <c r="J2" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K2" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007265267223243388</v>
+        <v>0.006752947731932024</v>
       </c>
       <c r="M2" t="n">
-        <v>7.618377612600802</v>
+        <v>7.660807080914274</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2788035637349</v>
+        <v>110.868245183582</v>
       </c>
       <c r="O2" t="n">
-        <v>10.50137150869994</v>
+        <v>10.52939908938692</v>
       </c>
       <c r="P2" t="n">
-        <v>350.2452516204581</v>
+        <v>350.1914922550316</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17208,28 +17338,28 @@
         <v>0.0626</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1108501945939875</v>
+        <v>-0.1076191748258537</v>
       </c>
       <c r="J3" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K3" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007798142057262925</v>
+        <v>0.00733864624300018</v>
       </c>
       <c r="M3" t="n">
-        <v>6.420109501746921</v>
+        <v>6.463556961313007</v>
       </c>
       <c r="N3" t="n">
-        <v>73.19397919214013</v>
+        <v>73.86567254006503</v>
       </c>
       <c r="O3" t="n">
-        <v>8.555347987787529</v>
+        <v>8.594514095634787</v>
       </c>
       <c r="P3" t="n">
-        <v>351.9761775525636</v>
+        <v>351.9403186986434</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17286,28 +17416,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07166463439700202</v>
+        <v>0.07095625960579388</v>
       </c>
       <c r="J4" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K4" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002572350126221479</v>
+        <v>0.002533425257059352</v>
       </c>
       <c r="M4" t="n">
-        <v>7.126465212457771</v>
+        <v>7.161788326146693</v>
       </c>
       <c r="N4" t="n">
-        <v>95.40337283332599</v>
+        <v>95.82359064988246</v>
       </c>
       <c r="O4" t="n">
-        <v>9.767465015720608</v>
+        <v>9.788952479702946</v>
       </c>
       <c r="P4" t="n">
-        <v>358.7960707553885</v>
+        <v>358.8040377743307</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17345,7 +17475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29987,6 +30117,106 @@
         </is>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-45.36910203556256,170.8647939670181</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-45.36968920745147,170.86479476577614</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-45.37021370612729,170.86522946840458</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:13:46+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-45.370256689683906,170.8650684133452</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-45.369102078908924,170.8648000942735</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-45.36968598085326,170.8648202730338</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-45.37019825238272,170.86528737175942</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-45.369099436588314,170.86442667213547</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-45.36973090369527,170.86446513972427</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-45.37029502100678,170.86492478880396</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E494"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10511,6 +10511,27 @@
       <c r="E494" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>341.45</v>
+      </c>
+      <c r="C495" t="n">
+        <v>343.03</v>
+      </c>
+      <c r="D495" t="n">
+        <v>353.33</v>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10525,7 +10546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B656"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17093,6 +17114,16 @@
       </c>
       <c r="B656" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -17260,28 +17291,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.1264321940520159</v>
+        <v>-0.1289347992356968</v>
       </c>
       <c r="J2" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K2" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006752947731932024</v>
+        <v>0.00704833669350724</v>
       </c>
       <c r="M2" t="n">
-        <v>7.660807080914274</v>
+        <v>7.655946167328835</v>
       </c>
       <c r="N2" t="n">
-        <v>110.868245183582</v>
+        <v>110.6901894946784</v>
       </c>
       <c r="O2" t="n">
-        <v>10.52939908938692</v>
+        <v>10.52094052329346</v>
       </c>
       <c r="P2" t="n">
-        <v>350.1914922550316</v>
+        <v>350.2193915201797</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17338,28 +17369,28 @@
         <v>0.0626</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1076191748258537</v>
+        <v>-0.1105182655865785</v>
       </c>
       <c r="J3" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K3" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00733864624300018</v>
+        <v>0.007762948037243977</v>
       </c>
       <c r="M3" t="n">
-        <v>6.463556961313007</v>
+        <v>6.46355790687857</v>
       </c>
       <c r="N3" t="n">
-        <v>73.86567254006503</v>
+        <v>73.78220421274472</v>
       </c>
       <c r="O3" t="n">
-        <v>8.594514095634787</v>
+        <v>8.589656815772369</v>
       </c>
       <c r="P3" t="n">
-        <v>351.9403186986434</v>
+        <v>351.9727259809314</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17416,28 +17447,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07095625960579388</v>
+        <v>0.0676098316723506</v>
       </c>
       <c r="J4" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K4" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002533425257059352</v>
+        <v>0.002308047275901171</v>
       </c>
       <c r="M4" t="n">
-        <v>7.161788326146693</v>
+        <v>7.163283828584408</v>
       </c>
       <c r="N4" t="n">
-        <v>95.82359064988246</v>
+        <v>95.72599242093064</v>
       </c>
       <c r="O4" t="n">
-        <v>9.788952479702946</v>
+        <v>9.783966088500646</v>
       </c>
       <c r="P4" t="n">
-        <v>358.8040377743307</v>
+        <v>358.8410598596948</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17475,7 +17506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E494"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30217,6 +30248,33 @@
         </is>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-45.36910037249966,170.86455891870852</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-45.36971537500319,170.86458790139807</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-45.37026303045578,170.86504465501764</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E495"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10532,6 +10532,48 @@
       <c r="E495" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>352.66</v>
+      </c>
+      <c r="C496" t="n">
+        <v>356.64</v>
+      </c>
+      <c r="D496" t="n">
+        <v>366.91</v>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>334.9233333333333</v>
+      </c>
+      <c r="C497" t="n">
+        <v>336.1133333333333</v>
+      </c>
+      <c r="D497" t="n">
+        <v>346.98</v>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10546,7 +10588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17124,6 +17166,26 @@
       </c>
       <c r="B657" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -17291,28 +17353,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.1289347992356968</v>
+        <v>-0.1317634037529448</v>
       </c>
       <c r="J2" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K2" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00704833669350724</v>
+        <v>0.007399358757756325</v>
       </c>
       <c r="M2" t="n">
-        <v>7.655946167328835</v>
+        <v>7.661474223910729</v>
       </c>
       <c r="N2" t="n">
-        <v>110.6901894946784</v>
+        <v>110.5910306641552</v>
       </c>
       <c r="O2" t="n">
-        <v>10.52094052329346</v>
+        <v>10.51622701657563</v>
       </c>
       <c r="P2" t="n">
-        <v>350.2193915201797</v>
+        <v>350.2511316872229</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17369,28 +17431,28 @@
         <v>0.0626</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1105182655865785</v>
+        <v>-0.1131136958084279</v>
       </c>
       <c r="J3" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K3" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007762948037243977</v>
+        <v>0.008147701242394167</v>
       </c>
       <c r="M3" t="n">
-        <v>6.46355790687857</v>
+        <v>6.481508393614456</v>
       </c>
       <c r="N3" t="n">
-        <v>73.78220421274472</v>
+        <v>73.95939040619426</v>
       </c>
       <c r="O3" t="n">
-        <v>8.589656815772369</v>
+        <v>8.599964558426636</v>
       </c>
       <c r="P3" t="n">
-        <v>351.9727259809314</v>
+        <v>352.0019551438381</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17447,28 +17509,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0676098316723506</v>
+        <v>0.06426454152133475</v>
       </c>
       <c r="J4" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K4" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002308047275901171</v>
+        <v>0.002093420605399299</v>
       </c>
       <c r="M4" t="n">
-        <v>7.163283828584408</v>
+        <v>7.177185940701446</v>
       </c>
       <c r="N4" t="n">
-        <v>95.72599242093064</v>
+        <v>95.80177467583646</v>
       </c>
       <c r="O4" t="n">
-        <v>9.783966088500646</v>
+        <v>9.787838100205605</v>
       </c>
       <c r="P4" t="n">
-        <v>358.8410598596948</v>
+        <v>358.8783186792027</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17506,7 +17568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E495"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30275,6 +30337,60 @@
         </is>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-45.36910138502659,170.86470201563907</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-45.369693742693045,170.86475891320583</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-45.37021976016339,170.86520678460772</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-45.36909978290541,170.86447560506835</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-45.36972636854684,170.8645009923383</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-45.37028326353834,170.8649688432344</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E497"/>
+  <dimension ref="A1:E498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10572,6 +10572,27 @@
         <v>346.98</v>
       </c>
       <c r="E497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>335.0133333333333</v>
+      </c>
+      <c r="C498" t="n">
+        <v>342.1733333333333</v>
+      </c>
+      <c r="D498" t="n">
+        <v>344.79</v>
+      </c>
+      <c r="E498" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10588,7 +10609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17186,6 +17207,16 @@
       </c>
       <c r="B659" t="n">
         <v>0.29</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -17353,28 +17384,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.1317634037529448</v>
+        <v>-0.1371348122511618</v>
       </c>
       <c r="J2" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K2" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007399358757756325</v>
+        <v>0.00802414716869182</v>
       </c>
       <c r="M2" t="n">
-        <v>7.661474223910729</v>
+        <v>7.670866039801925</v>
       </c>
       <c r="N2" t="n">
-        <v>110.5910306641552</v>
+        <v>110.6526157692621</v>
       </c>
       <c r="O2" t="n">
-        <v>10.51622701657563</v>
+        <v>10.51915470792507</v>
       </c>
       <c r="P2" t="n">
-        <v>350.2511316872229</v>
+        <v>350.3114125700857</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17431,28 +17462,28 @@
         <v>0.0626</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1131136958084279</v>
+        <v>-0.1163547441664648</v>
       </c>
       <c r="J3" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K3" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008147701242394167</v>
+        <v>0.008644561144384277</v>
       </c>
       <c r="M3" t="n">
-        <v>6.481508393614456</v>
+        <v>6.483196822672149</v>
       </c>
       <c r="N3" t="n">
-        <v>73.95939040619426</v>
+        <v>73.89861103751056</v>
       </c>
       <c r="O3" t="n">
-        <v>8.599964558426636</v>
+        <v>8.596430133346665</v>
       </c>
       <c r="P3" t="n">
-        <v>352.0019551438381</v>
+        <v>352.038429236463</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17509,28 +17540,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06426454152133475</v>
+        <v>0.05707922916552442</v>
       </c>
       <c r="J4" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K4" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002093420605399299</v>
+        <v>0.001650030456899376</v>
       </c>
       <c r="M4" t="n">
-        <v>7.177185940701446</v>
+        <v>7.19948674123197</v>
       </c>
       <c r="N4" t="n">
-        <v>95.80177467583646</v>
+        <v>96.14281565957266</v>
       </c>
       <c r="O4" t="n">
-        <v>9.787838100205605</v>
+        <v>9.805244293722247</v>
       </c>
       <c r="P4" t="n">
-        <v>358.8783186792027</v>
+        <v>358.9583674589486</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17568,7 +17599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E497"/>
+  <dimension ref="A1:E498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30391,6 +30422,33 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-45.36909979103608,170.86447675392853</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-45.369716736616795,170.8645771372415</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-45.37029024155016,170.86494269711116</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E498"/>
+  <dimension ref="A1:E502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10593,6 +10593,90 @@
         <v>344.79</v>
       </c>
       <c r="E498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>348.8433333333333</v>
+      </c>
+      <c r="C499" t="n">
+        <v>355.8033333333333</v>
+      </c>
+      <c r="D499" t="n">
+        <v>366.71</v>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>354.2566666666667</v>
+      </c>
+      <c r="C500" t="n">
+        <v>355.8966666666667</v>
+      </c>
+      <c r="D500" t="n">
+        <v>365.21</v>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>342.36</v>
+      </c>
+      <c r="C501" t="n">
+        <v>347.28</v>
+      </c>
+      <c r="D501" t="n">
+        <v>361.04</v>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>350.37</v>
+      </c>
+      <c r="C502" t="n">
+        <v>355.58</v>
+      </c>
+      <c r="D502" t="n">
+        <v>361.95</v>
+      </c>
+      <c r="E502" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10609,7 +10693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B660"/>
+  <dimension ref="A1:B664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17217,6 +17301,46 @@
       </c>
       <c r="B660" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -17384,28 +17508,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.1371348122511618</v>
+        <v>-0.1331779798733821</v>
       </c>
       <c r="J2" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K2" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00802414716869182</v>
+        <v>0.007694038473402887</v>
       </c>
       <c r="M2" t="n">
-        <v>7.670866039801925</v>
+        <v>7.642116822314168</v>
       </c>
       <c r="N2" t="n">
-        <v>110.6526157692621</v>
+        <v>109.8952725791769</v>
       </c>
       <c r="O2" t="n">
-        <v>10.51915470792507</v>
+        <v>10.48309460890137</v>
       </c>
       <c r="P2" t="n">
-        <v>350.3114125700857</v>
+        <v>350.2668369335471</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17462,28 +17586,28 @@
         <v>0.0626</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1163547441664648</v>
+        <v>-0.1078055861292364</v>
       </c>
       <c r="J3" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K3" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008644561144384277</v>
+        <v>0.007536368418676775</v>
       </c>
       <c r="M3" t="n">
-        <v>6.483196822672149</v>
+        <v>6.471870158941683</v>
       </c>
       <c r="N3" t="n">
-        <v>73.89861103751056</v>
+        <v>73.5423053273645</v>
       </c>
       <c r="O3" t="n">
-        <v>8.596430133346665</v>
+        <v>8.575681041606229</v>
       </c>
       <c r="P3" t="n">
-        <v>352.038429236463</v>
+        <v>351.9418321757368</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17540,28 +17664,28 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05707922916552442</v>
+        <v>0.06295862720030869</v>
       </c>
       <c r="J4" t="n">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K4" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001650030456899376</v>
+        <v>0.002040012626462362</v>
       </c>
       <c r="M4" t="n">
-        <v>7.19948674123197</v>
+        <v>7.161212509432977</v>
       </c>
       <c r="N4" t="n">
-        <v>96.14281565957266</v>
+        <v>95.42286334408487</v>
       </c>
       <c r="O4" t="n">
-        <v>9.805244293722247</v>
+        <v>9.768462690929667</v>
       </c>
       <c r="P4" t="n">
-        <v>358.9583674589486</v>
+        <v>358.8926239411074</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17599,7 +17723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E498"/>
+  <dimension ref="A1:E502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30449,6 +30573,114 @@
         </is>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-45.36910104031187,170.86465329545175</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-45.36969507253392,170.86474840036</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-45.370220397430074,170.86520439683937</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-45.3691015292286,170.8647223972724</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-45.36969492418519,170.86474957310776</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-45.37022517692861,170.865186488575</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-45.36910045470078,170.86457053496204</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-45.36970861990106,170.86464130333488</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-45.370238463919506,170.86513670358462</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-45.36910117820025,170.86467278352652</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-45.3696954275112,170.86474559414214</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-45.370235564362225,170.86514756793696</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>341.0866666666667</v>
+        <v>341.09</v>
       </c>
       <c r="C2" t="n">
-        <v>348.3966666666667</v>
+        <v>348.4</v>
       </c>
       <c r="D2" t="n">
         <v>357.74</v>
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.8633333333333</v>
+        <v>358.86</v>
       </c>
       <c r="C3" t="n">
-        <v>357.6433333333333</v>
+        <v>357.64</v>
       </c>
       <c r="D3" t="n">
-        <v>360.9500000000001</v>
+        <v>360.95</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.4266666666667</v>
+        <v>348.43</v>
       </c>
       <c r="C5" t="n">
-        <v>349.6566666666667</v>
+        <v>349.66</v>
       </c>
       <c r="D5" t="n">
         <v>359.97</v>
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357.4133333333333</v>
+        <v>357.41</v>
       </c>
       <c r="C6" t="n">
-        <v>359.0433333333333</v>
+        <v>359.04</v>
       </c>
       <c r="D6" t="n">
         <v>366.22</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335.3033333333333</v>
+        <v>335.3</v>
       </c>
       <c r="C7" t="n">
-        <v>335.7633333333333</v>
+        <v>335.76</v>
       </c>
       <c r="D7" t="n">
         <v>349.36</v>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>354.6133333333333</v>
+        <v>354.61</v>
       </c>
       <c r="C8" t="n">
-        <v>355.8433333333333</v>
+        <v>355.84</v>
       </c>
       <c r="D8" t="n">
         <v>361.76</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347.0633333333333</v>
+        <v>347.06</v>
       </c>
       <c r="C9" t="n">
-        <v>352.1633333333333</v>
+        <v>352.16</v>
       </c>
       <c r="D9" t="n">
         <v>357.64</v>
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>361.7666666666667</v>
+        <v>361.77</v>
       </c>
       <c r="C11" t="n">
-        <v>360.8266666666667</v>
+        <v>360.83</v>
       </c>
       <c r="D11" t="n">
         <v>372.38</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>346.2566666666667</v>
+        <v>346.26</v>
       </c>
       <c r="C15" t="n">
-        <v>347.8866666666667</v>
+        <v>347.89</v>
       </c>
       <c r="D15" t="n">
         <v>357.22</v>
@@ -806,10 +806,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>345.7566666666667</v>
+        <v>345.76</v>
       </c>
       <c r="C18" t="n">
-        <v>348.0366666666667</v>
+        <v>348.04</v>
       </c>
       <c r="D18" t="n">
         <v>360.15</v>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>349.4733333333333</v>
+        <v>349.47</v>
       </c>
       <c r="C19" t="n">
-        <v>348.5333333333333</v>
+        <v>348.53</v>
       </c>
       <c r="D19" t="n">
         <v>360.96</v>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.8066666666667</v>
+        <v>347.81</v>
       </c>
       <c r="C20" t="n">
-        <v>352.6366666666667</v>
+        <v>352.64</v>
       </c>
       <c r="D20" t="n">
         <v>359.93</v>
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>341.4466666666667</v>
+        <v>341.45</v>
       </c>
       <c r="C21" t="n">
-        <v>348.1866666666667</v>
+        <v>348.19</v>
       </c>
       <c r="D21" t="n">
         <v>356.65</v>
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>352.0333333333333</v>
+        <v>352.03</v>
       </c>
       <c r="C22" t="n">
-        <v>353.9033333333333</v>
+        <v>353.9</v>
       </c>
       <c r="D22" t="n">
         <v>366.02</v>
@@ -911,10 +911,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>358.4166666666667</v>
+        <v>358.42</v>
       </c>
       <c r="C23" t="n">
-        <v>363.0566666666667</v>
+        <v>363.06</v>
       </c>
       <c r="D23" t="n">
         <v>372.48</v>
@@ -932,13 +932,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>347.2366666666667</v>
+        <v>347.24</v>
       </c>
       <c r="C24" t="n">
-        <v>349.1766666666667</v>
+        <v>349.18</v>
       </c>
       <c r="D24" t="n">
-        <v>351.8200000000001</v>
+        <v>351.82</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>342.2633333333333</v>
+        <v>342.26</v>
       </c>
       <c r="C25" t="n">
-        <v>352.0033333333333</v>
+        <v>352</v>
       </c>
       <c r="D25" t="n">
         <v>365.19</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>344.1866666666667</v>
+        <v>344.19</v>
       </c>
       <c r="C26" t="n">
-        <v>347.4666666666667</v>
+        <v>347.47</v>
       </c>
       <c r="D26" t="n">
         <v>351.33</v>
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>334.3866666666667</v>
+        <v>334.39</v>
       </c>
       <c r="C27" t="n">
-        <v>346.2066666666667</v>
+        <v>346.21</v>
       </c>
       <c r="D27" t="n">
         <v>345.77</v>
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>352.5866666666667</v>
+        <v>352.59</v>
       </c>
       <c r="C28" t="n">
-        <v>353.1466666666667</v>
+        <v>353.15</v>
       </c>
       <c r="D28" t="n">
         <v>361.81</v>
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>355.3666666666667</v>
+        <v>355.37</v>
       </c>
       <c r="C29" t="n">
-        <v>353.1066666666667</v>
+        <v>353.11</v>
       </c>
       <c r="D29" t="n">
         <v>369.23</v>
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>362.6966666666667</v>
+        <v>362.7</v>
       </c>
       <c r="C31" t="n">
-        <v>361.8566666666667</v>
+        <v>361.86</v>
       </c>
       <c r="D31" t="n">
         <v>365.86</v>
@@ -1100,10 +1100,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>362.6666666666667</v>
+        <v>362.67</v>
       </c>
       <c r="C32" t="n">
-        <v>363.0166666666667</v>
+        <v>363.02</v>
       </c>
       <c r="D32" t="n">
         <v>368.46</v>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>401.0166666666667</v>
+        <v>401.02</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>341.7533333333333</v>
+        <v>341.75</v>
       </c>
       <c r="C34" t="n">
-        <v>338.8733333333333</v>
+        <v>338.87</v>
       </c>
       <c r="D34" t="n">
         <v>343.03</v>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>324.1366666666667</v>
+        <v>324.14</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>335.6033333333333</v>
+        <v>335.6</v>
       </c>
       <c r="C39" t="n">
-        <v>342.2733333333333</v>
+        <v>342.27</v>
       </c>
       <c r="D39" t="n">
         <v>357.57</v>
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>357.0866666666667</v>
+        <v>357.09</v>
       </c>
       <c r="C40" t="n">
-        <v>365.1466666666667</v>
+        <v>365.15</v>
       </c>
       <c r="D40" t="n">
         <v>370.38</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>359.5266666666667</v>
+        <v>359.53</v>
       </c>
       <c r="C41" t="n">
-        <v>329.9366666666667</v>
+        <v>329.94</v>
       </c>
       <c r="D41" t="n">
         <v>362.28</v>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>349.4266666666667</v>
+        <v>349.43</v>
       </c>
       <c r="C42" t="n">
-        <v>352.7166666666667</v>
+        <v>352.72</v>
       </c>
       <c r="D42" t="n">
         <v>355.73</v>
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>347.0133333333333</v>
+        <v>347.01</v>
       </c>
       <c r="C43" t="n">
-        <v>355.6433333333333</v>
+        <v>355.64</v>
       </c>
       <c r="D43" t="n">
         <v>372.22</v>
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>355.3466666666667</v>
+        <v>355.35</v>
       </c>
       <c r="C45" t="n">
-        <v>357.4466666666667</v>
+        <v>357.45</v>
       </c>
       <c r="D45" t="n">
         <v>365.6</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>353.8266666666667</v>
+        <v>353.83</v>
       </c>
       <c r="C47" t="n">
-        <v>352.8166666666667</v>
+        <v>352.82</v>
       </c>
       <c r="D47" t="n">
         <v>365.34</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>343.5733333333333</v>
+        <v>343.57</v>
       </c>
       <c r="C49" t="n">
-        <v>344.4233333333333</v>
+        <v>344.42</v>
       </c>
       <c r="D49" t="n">
         <v>345.74</v>
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>342.1233333333333</v>
+        <v>342.12</v>
       </c>
       <c r="C50" t="n">
-        <v>342.5233333333333</v>
+        <v>342.52</v>
       </c>
       <c r="D50" t="n">
         <v>349.09</v>
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>359.4033333333333</v>
+        <v>359.4</v>
       </c>
       <c r="C51" t="n">
-        <v>358.6033333333333</v>
+        <v>358.6</v>
       </c>
       <c r="D51" t="n">
         <v>361.55</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>344.2466666666667</v>
+        <v>344.25</v>
       </c>
       <c r="C52" t="n">
-        <v>350.3466666666667</v>
+        <v>350.35</v>
       </c>
       <c r="D52" t="n">
         <v>362.22</v>
@@ -1567,10 +1567,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>347.8566666666667</v>
+        <v>347.86</v>
       </c>
       <c r="C55" t="n">
-        <v>352.2766666666667</v>
+        <v>352.28</v>
       </c>
       <c r="D55" t="n">
         <v>361.66</v>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>376.7966666666667</v>
+        <v>376.8</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>344.8833333333333</v>
+        <v>344.88</v>
       </c>
       <c r="C59" t="n">
-        <v>356.4933333333333</v>
+        <v>356.49</v>
       </c>
       <c r="D59" t="n">
         <v>366.03</v>
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>351.0566666666667</v>
+        <v>351.06</v>
       </c>
       <c r="C60" t="n">
-        <v>359.7966666666667</v>
+        <v>359.8</v>
       </c>
       <c r="D60" t="n">
         <v>373.82</v>
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>352.1533333333333</v>
+        <v>352.15</v>
       </c>
       <c r="C62" t="n">
-        <v>353.8533333333333</v>
+        <v>353.85</v>
       </c>
       <c r="D62" t="n">
         <v>361.92</v>
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>359.5066666666667</v>
+        <v>359.51</v>
       </c>
       <c r="C63" t="n">
-        <v>361.3466666666667</v>
+        <v>361.35</v>
       </c>
       <c r="D63" t="n">
         <v>365.63</v>
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>343.5033333333333</v>
+        <v>343.5</v>
       </c>
       <c r="C65" t="n">
-        <v>346.9633333333333</v>
+        <v>346.96</v>
       </c>
       <c r="D65" t="n">
         <v>357.39</v>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>350.6333333333333</v>
+        <v>350.63</v>
       </c>
       <c r="C66" t="n">
-        <v>349.4433333333333</v>
+        <v>349.44</v>
       </c>
       <c r="D66" t="n">
         <v>352.36</v>
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>349.4433333333333</v>
+        <v>349.44</v>
       </c>
       <c r="C68" t="n">
-        <v>350.9533333333333</v>
+        <v>350.95</v>
       </c>
       <c r="D68" t="n">
         <v>360.84</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>347.2566666666667</v>
+        <v>347.26</v>
       </c>
       <c r="C69" t="n">
-        <v>353.8366666666667</v>
+        <v>353.84</v>
       </c>
       <c r="D69" t="n">
         <v>367.11</v>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>325.6533333333333</v>
+        <v>325.65</v>
       </c>
       <c r="C70" t="n">
-        <v>331.9333333333333</v>
+        <v>331.93</v>
       </c>
       <c r="D70" t="n">
         <v>336.59</v>
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>342.9933333333333</v>
+        <v>342.99</v>
       </c>
       <c r="C71" t="n">
-        <v>349.5833333333333</v>
+        <v>349.58</v>
       </c>
       <c r="D71" t="n">
         <v>358.47</v>
@@ -1912,10 +1912,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>347.0266666666667</v>
+        <v>347.03</v>
       </c>
       <c r="C72" t="n">
-        <v>348.4366666666667</v>
+        <v>348.44</v>
       </c>
       <c r="D72" t="n">
         <v>361.11</v>
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>354.4366666666667</v>
+        <v>354.44</v>
       </c>
       <c r="C73" t="n">
-        <v>353.3466666666667</v>
+        <v>353.35</v>
       </c>
       <c r="D73" t="n">
         <v>364.73</v>
@@ -1975,10 +1975,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>360.4566666666667</v>
+        <v>360.46</v>
       </c>
       <c r="C75" t="n">
-        <v>361.4066666666667</v>
+        <v>361.41</v>
       </c>
       <c r="D75" t="n">
         <v>363.6</v>
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>348.6566666666667</v>
+        <v>348.66</v>
       </c>
       <c r="C76" t="n">
-        <v>343.3866666666667</v>
+        <v>343.39</v>
       </c>
       <c r="D76" t="n">
         <v>345.19</v>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>361.1033333333333</v>
+        <v>361.1</v>
       </c>
       <c r="C79" t="n">
-        <v>361.2133333333333</v>
+        <v>361.21</v>
       </c>
       <c r="D79" t="n">
         <v>364.21</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>353.8533333333333</v>
+        <v>353.85</v>
       </c>
       <c r="C80" t="n">
-        <v>351.2033333333333</v>
+        <v>351.2</v>
       </c>
       <c r="D80" t="n">
         <v>358.86</v>
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>351.2233333333333</v>
+        <v>351.22</v>
       </c>
       <c r="C81" t="n">
-        <v>354.4433333333333</v>
+        <v>354.44</v>
       </c>
       <c r="D81" t="n">
         <v>362.93</v>
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>340.5233333333333</v>
+        <v>340.52</v>
       </c>
       <c r="C83" t="n">
-        <v>344.4933333333333</v>
+        <v>344.49</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>343.0533333333333</v>
+        <v>343.05</v>
       </c>
       <c r="C84" t="n">
-        <v>353.9133333333333</v>
+        <v>353.91</v>
       </c>
       <c r="D84" t="n">
         <v>364.21</v>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>347.0133333333333</v>
+        <v>347.01</v>
       </c>
       <c r="C85" t="n">
-        <v>348.1733333333333</v>
+        <v>348.17</v>
       </c>
       <c r="D85" t="n">
         <v>358.68</v>
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>359.5666666666667</v>
+        <v>359.57</v>
       </c>
       <c r="C86" t="n">
-        <v>358.4466666666667</v>
+        <v>358.45</v>
       </c>
       <c r="D86" t="n">
         <v>372.39</v>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>358.7233333333333</v>
+        <v>358.72</v>
       </c>
       <c r="C89" t="n">
-        <v>356.8933333333333</v>
+        <v>356.89</v>
       </c>
       <c r="D89" t="n">
         <v>360.17</v>
@@ -2326,10 +2326,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>344.5233333333333</v>
+        <v>344.52</v>
       </c>
       <c r="C92" t="n">
-        <v>354.0633333333333</v>
+        <v>354.06</v>
       </c>
       <c r="D92" t="n">
         <v>358.81</v>
@@ -2347,10 +2347,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>346.8133333333333</v>
+        <v>346.81</v>
       </c>
       <c r="C93" t="n">
-        <v>346.5833333333333</v>
+        <v>346.58</v>
       </c>
       <c r="D93" t="n">
         <v>349.34</v>
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>355.3333333333333</v>
+        <v>355.33</v>
       </c>
       <c r="C95" t="n">
-        <v>354.4133333333333</v>
+        <v>354.41</v>
       </c>
       <c r="D95" t="n">
         <v>361.73</v>
@@ -2406,11 +2406,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>348.3166666666667</v>
+        <v>348.32</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>366.5100000000001</v>
+        <v>366.51</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>335.2233333333333</v>
+        <v>335.22</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
@@ -2442,10 +2442,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>341.9166666666667</v>
+        <v>341.92</v>
       </c>
       <c r="C98" t="n">
-        <v>351.5366666666667</v>
+        <v>351.54</v>
       </c>
       <c r="D98" t="n">
         <v>361.28</v>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>342.2466666666667</v>
+        <v>342.25</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
@@ -2480,10 +2480,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>337.9833333333333</v>
+        <v>337.98</v>
       </c>
       <c r="C100" t="n">
-        <v>344.6233333333333</v>
+        <v>344.62</v>
       </c>
       <c r="D100" t="n">
         <v>352.81</v>
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>358.0566666666667</v>
+        <v>358.06</v>
       </c>
       <c r="C101" t="n">
-        <v>358.2866666666667</v>
+        <v>358.29</v>
       </c>
       <c r="D101" t="n">
         <v>362.94</v>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>349.9066666666667</v>
+        <v>349.91</v>
       </c>
       <c r="C102" t="n">
-        <v>351.2766666666667</v>
+        <v>351.28</v>
       </c>
       <c r="D102" t="n">
         <v>355.51</v>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>344.8866666666667</v>
+        <v>344.89</v>
       </c>
       <c r="C104" t="n">
-        <v>349.6866666666667</v>
+        <v>349.69</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
@@ -2583,10 +2583,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>348.6533333333333</v>
+        <v>348.65</v>
       </c>
       <c r="C105" t="n">
-        <v>348.2033333333333</v>
+        <v>348.2</v>
       </c>
       <c r="D105" t="n">
         <v>358.45</v>
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>347.4566666666667</v>
+        <v>347.46</v>
       </c>
       <c r="C106" t="n">
-        <v>349.5266666666667</v>
+        <v>349.53</v>
       </c>
       <c r="D106" t="n">
         <v>357.99</v>
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>356.5833333333333</v>
+        <v>356.58</v>
       </c>
       <c r="C111" t="n">
-        <v>353.8333333333333</v>
+        <v>353.83</v>
       </c>
       <c r="D111" t="n">
         <v>362.8</v>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>338.2666666666667</v>
+        <v>338.27</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>357.2966666666667</v>
+        <v>357.3</v>
       </c>
       <c r="C114" t="n">
-        <v>356.7666666666667</v>
+        <v>356.77</v>
       </c>
       <c r="D114" t="n">
         <v>366.66</v>
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>342.3233333333333</v>
+        <v>342.32</v>
       </c>
       <c r="C116" t="n">
-        <v>341.9333333333333</v>
+        <v>341.93</v>
       </c>
       <c r="D116" t="n">
         <v>351.44</v>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>353.2566666666667</v>
+        <v>353.26</v>
       </c>
       <c r="C117" t="n">
-        <v>356.5966666666667</v>
+        <v>356.6</v>
       </c>
       <c r="D117" t="n">
         <v>367.17</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>344.6233333333333</v>
+        <v>344.62</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>348.4833333333333</v>
+        <v>348.48</v>
       </c>
       <c r="C119" t="n">
-        <v>359.5433333333333</v>
+        <v>359.54</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>343.4766666666667</v>
+        <v>343.48</v>
       </c>
       <c r="C120" t="n">
-        <v>351.0666666666667</v>
+        <v>351.07</v>
       </c>
       <c r="D120" t="n">
         <v>361.86</v>
@@ -2909,13 +2909,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>339.5933333333333</v>
+        <v>339.59</v>
       </c>
       <c r="C121" t="n">
-        <v>342.3033333333333</v>
+        <v>342.3</v>
       </c>
       <c r="D121" t="n">
-        <v>350.6799999999999</v>
+        <v>350.68</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>348.3933333333333</v>
+        <v>348.39</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>356.3933333333333</v>
+        <v>356.39</v>
       </c>
       <c r="C123" t="n">
-        <v>356.9133333333333</v>
+        <v>356.91</v>
       </c>
       <c r="D123" t="n">
         <v>369.72</v>
@@ -2968,10 +2968,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>337.4766666666667</v>
+        <v>337.48</v>
       </c>
       <c r="C124" t="n">
-        <v>341.8066666666667</v>
+        <v>341.81</v>
       </c>
       <c r="D124" t="n">
         <v>353.64</v>
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>341.6733333333333</v>
+        <v>341.67</v>
       </c>
       <c r="C126" t="n">
-        <v>344.1933333333333</v>
+        <v>344.19</v>
       </c>
       <c r="D126" t="n">
         <v>356.32</v>
@@ -3031,10 +3031,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>353.1066666666667</v>
+        <v>353.11</v>
       </c>
       <c r="C127" t="n">
-        <v>353.7366666666667</v>
+        <v>353.74</v>
       </c>
       <c r="D127" t="n">
         <v>365.19</v>
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>358.1466666666667</v>
+        <v>358.15</v>
       </c>
       <c r="C128" t="n">
-        <v>360.7766666666667</v>
+        <v>360.78</v>
       </c>
       <c r="D128" t="n">
         <v>366.68</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>348.8633333333333</v>
+        <v>348.86</v>
       </c>
       <c r="D130" t="n">
         <v>355.23</v>
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>361.1066666666667</v>
+        <v>361.11</v>
       </c>
       <c r="C132" t="n">
-        <v>366.9166666666667</v>
+        <v>366.92</v>
       </c>
       <c r="D132" t="n">
-        <v>372.7000000000001</v>
+        <v>372.7</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>354.3566666666667</v>
+        <v>354.36</v>
       </c>
       <c r="C134" t="n">
-        <v>356.0866666666667</v>
+        <v>356.09</v>
       </c>
       <c r="D134" t="n">
         <v>355.78</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>360.2366666666667</v>
+        <v>360.24</v>
       </c>
       <c r="D135" t="n">
         <v>356.51</v>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>353.7133333333333</v>
+        <v>353.71</v>
       </c>
       <c r="C136" t="n">
-        <v>358.8833333333333</v>
+        <v>358.88</v>
       </c>
       <c r="D136" t="n">
         <v>365.69</v>
@@ -3256,10 +3256,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>354.2166666666667</v>
+        <v>354.22</v>
       </c>
       <c r="C138" t="n">
-        <v>351.0666666666667</v>
+        <v>351.07</v>
       </c>
       <c r="D138" t="n">
         <v>357.87</v>
@@ -3277,10 +3277,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>333.2266666666667</v>
+        <v>333.23</v>
       </c>
       <c r="C139" t="n">
-        <v>336.8466666666667</v>
+        <v>336.85</v>
       </c>
       <c r="D139" t="n">
         <v>343.52</v>
@@ -3319,10 +3319,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>351.8866666666667</v>
+        <v>351.89</v>
       </c>
       <c r="C141" t="n">
-        <v>350.6866666666667</v>
+        <v>350.69</v>
       </c>
       <c r="D141" t="n">
         <v>356.69</v>
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>360.7533333333333</v>
+        <v>360.75</v>
       </c>
       <c r="C142" t="n">
-        <v>363.4833333333333</v>
+        <v>363.48</v>
       </c>
       <c r="D142" t="n">
         <v>374.86</v>
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>342.6833333333333</v>
+        <v>342.68</v>
       </c>
       <c r="C143" t="n">
-        <v>347.7633333333333</v>
+        <v>347.76</v>
       </c>
       <c r="D143" t="n">
         <v>354.79</v>
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>349.4966666666667</v>
+        <v>349.5</v>
       </c>
       <c r="C145" t="n">
-        <v>339.8466666666667</v>
+        <v>339.85</v>
       </c>
       <c r="D145" t="n">
         <v>360.84</v>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>355.2366666666667</v>
+        <v>355.24</v>
       </c>
       <c r="C146" t="n">
-        <v>359.8866666666667</v>
+        <v>359.89</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>354.5533333333333</v>
+        <v>354.55</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>357.2866666666667</v>
+        <v>357.29</v>
       </c>
       <c r="C148" t="n">
-        <v>354.7466666666667</v>
+        <v>354.75</v>
       </c>
       <c r="D148" t="n">
         <v>360.33</v>
@@ -3479,10 +3479,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>352.6566666666667</v>
+        <v>352.66</v>
       </c>
       <c r="C149" t="n">
-        <v>351.3366666666667</v>
+        <v>351.34</v>
       </c>
       <c r="D149" t="n">
         <v>355.03</v>
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>336.2466666666667</v>
+        <v>336.25</v>
       </c>
       <c r="C151" t="n">
-        <v>341.0566666666667</v>
+        <v>341.06</v>
       </c>
       <c r="D151" t="n">
         <v>347.38</v>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>348.3933333333333</v>
+        <v>348.39</v>
       </c>
       <c r="C153" t="n">
-        <v>348.6433333333333</v>
+        <v>348.64</v>
       </c>
       <c r="D153" t="n">
         <v>358.93</v>
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>344.1766666666667</v>
+        <v>344.18</v>
       </c>
       <c r="C154" t="n">
-        <v>349.2266666666667</v>
+        <v>349.23</v>
       </c>
       <c r="D154" t="n">
         <v>356.05</v>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>342.4033333333333</v>
+        <v>342.4</v>
       </c>
       <c r="C159" t="n">
-        <v>344.2433333333333</v>
+        <v>344.24</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
@@ -3704,10 +3704,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>342.3833333333333</v>
+        <v>342.38</v>
       </c>
       <c r="C160" t="n">
-        <v>347.0033333333333</v>
+        <v>347</v>
       </c>
       <c r="D160" t="n">
         <v>362.42</v>
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>341.1066666666667</v>
+        <v>341.11</v>
       </c>
       <c r="C161" t="n">
-        <v>330.0366666666667</v>
+        <v>330.04</v>
       </c>
       <c r="D161" t="n">
         <v>331.75</v>
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>335.7533333333333</v>
+        <v>335.75</v>
       </c>
       <c r="C162" t="n">
-        <v>333.4733333333333</v>
+        <v>333.47</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>311.4966666666667</v>
+        <v>311.5</v>
       </c>
       <c r="C163" t="n">
-        <v>317.2366666666667</v>
+        <v>317.24</v>
       </c>
       <c r="D163" t="n">
         <v>339.02</v>
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>330.0633333333333</v>
+        <v>330.06</v>
       </c>
       <c r="C164" t="n">
-        <v>340.7833333333333</v>
+        <v>340.78</v>
       </c>
       <c r="D164" t="n">
         <v>344.72</v>
@@ -3807,10 +3807,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>347.7233333333333</v>
+        <v>347.72</v>
       </c>
       <c r="C165" t="n">
-        <v>341.6333333333333</v>
+        <v>341.63</v>
       </c>
       <c r="D165" t="n">
         <v>355.4</v>
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>357.7833333333333</v>
+        <v>357.78</v>
       </c>
       <c r="C166" t="n">
-        <v>356.0533333333333</v>
+        <v>356.05</v>
       </c>
       <c r="D166" t="n">
         <v>369.74</v>
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>353.5033333333333</v>
+        <v>353.5</v>
       </c>
       <c r="C167" t="n">
-        <v>353.0233333333333</v>
+        <v>353.02</v>
       </c>
       <c r="D167" t="n">
         <v>358.18</v>
@@ -3870,10 +3870,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>346.8533333333333</v>
+        <v>346.85</v>
       </c>
       <c r="C168" t="n">
-        <v>347.2133333333333</v>
+        <v>347.21</v>
       </c>
       <c r="D168" t="n">
         <v>365.68</v>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>363.7866666666667</v>
+        <v>363.79</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
@@ -3908,10 +3908,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>349.3566666666667</v>
+        <v>349.36</v>
       </c>
       <c r="C170" t="n">
-        <v>352.7166666666667</v>
+        <v>352.72</v>
       </c>
       <c r="D170" t="n">
         <v>366.13</v>
@@ -3929,10 +3929,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>343.8966666666667</v>
+        <v>343.9</v>
       </c>
       <c r="C171" t="n">
-        <v>341.1966666666667</v>
+        <v>341.2</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>348.3533333333333</v>
+        <v>348.35</v>
       </c>
       <c r="C172" t="n">
-        <v>343.2733333333333</v>
+        <v>343.27</v>
       </c>
       <c r="D172" t="n">
         <v>347.29</v>
@@ -3969,10 +3969,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>352.4666666666667</v>
+        <v>352.47</v>
       </c>
       <c r="C173" t="n">
-        <v>352.3266666666667</v>
+        <v>352.33</v>
       </c>
       <c r="D173" t="n">
         <v>362.07</v>
@@ -4011,10 +4011,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>344.9966666666667</v>
+        <v>345</v>
       </c>
       <c r="C175" t="n">
-        <v>347.3666666666667</v>
+        <v>347.37</v>
       </c>
       <c r="D175" t="n">
         <v>358.28</v>
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>341.0166666666667</v>
+        <v>341.02</v>
       </c>
       <c r="C176" t="n">
-        <v>350.6966666666667</v>
+        <v>350.7</v>
       </c>
       <c r="D176" t="n">
         <v>364.22</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>345.2566666666667</v>
+        <v>345.26</v>
       </c>
       <c r="C177" t="n">
-        <v>358.8366666666667</v>
+        <v>358.84</v>
       </c>
       <c r="D177" t="n">
         <v>367.86</v>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>340.3333333333333</v>
+        <v>340.33</v>
       </c>
       <c r="C178" t="n">
-        <v>348.2433333333333</v>
+        <v>348.24</v>
       </c>
       <c r="D178" t="n">
-        <v>356.4299999999999</v>
+        <v>356.43</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4095,10 +4095,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>362.3766666666667</v>
+        <v>362.38</v>
       </c>
       <c r="C179" t="n">
-        <v>361.8366666666667</v>
+        <v>361.84</v>
       </c>
       <c r="D179" t="n">
         <v>369.75</v>
@@ -4137,10 +4137,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>356.7033333333333</v>
+        <v>356.7</v>
       </c>
       <c r="C181" t="n">
-        <v>355.4433333333333</v>
+        <v>355.44</v>
       </c>
       <c r="D181" t="n">
         <v>362.09</v>
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>351.9333333333333</v>
+        <v>351.93</v>
       </c>
       <c r="C182" t="n">
-        <v>356.7633333333333</v>
+        <v>356.76</v>
       </c>
       <c r="D182" t="n">
         <v>369.31</v>
@@ -4200,10 +4200,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>336.2733333333333</v>
+        <v>336.27</v>
       </c>
       <c r="C184" t="n">
-        <v>344.7833333333333</v>
+        <v>344.78</v>
       </c>
       <c r="D184" t="n">
         <v>347.47</v>
@@ -4221,10 +4221,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>346.2466666666667</v>
+        <v>346.25</v>
       </c>
       <c r="C185" t="n">
-        <v>347.1366666666667</v>
+        <v>347.14</v>
       </c>
       <c r="D185" t="n">
         <v>363.52</v>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>348.6166666666667</v>
+        <v>348.62</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
@@ -4280,10 +4280,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>355.2166666666667</v>
+        <v>355.22</v>
       </c>
       <c r="C188" t="n">
-        <v>355.1966666666667</v>
+        <v>355.2</v>
       </c>
       <c r="D188" t="n">
         <v>362.43</v>
@@ -4301,10 +4301,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>338.9666666666667</v>
+        <v>338.97</v>
       </c>
       <c r="C189" t="n">
-        <v>342.8066666666667</v>
+        <v>342.81</v>
       </c>
       <c r="D189" t="n">
         <v>360.6</v>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>355.0266666666667</v>
+        <v>355.03</v>
       </c>
       <c r="C196" t="n">
-        <v>354.5466666666667</v>
+        <v>354.55</v>
       </c>
       <c r="D196" t="n">
         <v>363.39</v>
@@ -4469,10 +4469,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>345.4966666666667</v>
+        <v>345.5</v>
       </c>
       <c r="C197" t="n">
-        <v>343.9666666666667</v>
+        <v>343.97</v>
       </c>
       <c r="D197" t="n">
         <v>361.45</v>
@@ -4490,10 +4490,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>340.9666666666667</v>
+        <v>340.97</v>
       </c>
       <c r="C198" t="n">
-        <v>343.7066666666667</v>
+        <v>343.71</v>
       </c>
       <c r="D198" t="n">
         <v>351.26</v>
@@ -4553,10 +4553,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>351.2833333333333</v>
+        <v>351.28</v>
       </c>
       <c r="C201" t="n">
-        <v>357.2733333333333</v>
+        <v>357.27</v>
       </c>
       <c r="D201" t="n">
         <v>359.97</v>
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>331.8433333333333</v>
+        <v>331.84</v>
       </c>
       <c r="C202" t="n">
-        <v>331.5633333333333</v>
+        <v>331.56</v>
       </c>
       <c r="D202" t="n">
-        <v>342.0700000000001</v>
+        <v>342.07</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4595,10 +4595,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>339.0466666666667</v>
+        <v>339.05</v>
       </c>
       <c r="C203" t="n">
-        <v>345.0566666666667</v>
+        <v>345.06</v>
       </c>
       <c r="D203" t="n">
         <v>351.35</v>
@@ -4671,10 +4671,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>329.6866666666667</v>
+        <v>329.69</v>
       </c>
       <c r="C207" t="n">
-        <v>336.8466666666667</v>
+        <v>336.85</v>
       </c>
       <c r="D207" t="n">
         <v>346.11</v>
@@ -4730,10 +4730,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>343.0366666666667</v>
+        <v>343.04</v>
       </c>
       <c r="C210" t="n">
-        <v>351.0966666666667</v>
+        <v>351.1</v>
       </c>
       <c r="D210" t="n">
         <v>361.14</v>
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>353.9233333333333</v>
+        <v>353.92</v>
       </c>
       <c r="C211" t="n">
-        <v>355.6733333333333</v>
+        <v>355.67</v>
       </c>
       <c r="D211" t="n">
         <v>362.15</v>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>366.4966666666666</v>
+        <v>366.5</v>
       </c>
       <c r="D212" t="n">
         <v>369.17</v>
@@ -4850,10 +4850,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>327.4633333333333</v>
+        <v>327.46</v>
       </c>
       <c r="C216" t="n">
-        <v>330.9233333333333</v>
+        <v>330.92</v>
       </c>
       <c r="D216" t="n">
         <v>338.1</v>
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>358.6833333333333</v>
+        <v>358.68</v>
       </c>
       <c r="C217" t="n">
-        <v>362.9133333333333</v>
+        <v>362.91</v>
       </c>
       <c r="D217" t="n">
         <v>371</v>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>323.6566666666667</v>
+        <v>323.66</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>352.8533333333333</v>
+        <v>352.85</v>
       </c>
       <c r="D219" t="n">
         <v>362.03</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>350.6433333333333</v>
+        <v>350.64</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>346.6266666666667</v>
+        <v>346.63</v>
       </c>
       <c r="C221" t="n">
-        <v>350.4566666666667</v>
+        <v>350.46</v>
       </c>
       <c r="D221" t="n">
         <v>358.65</v>
@@ -5004,10 +5004,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>349.2033333333333</v>
+        <v>349.2</v>
       </c>
       <c r="C224" t="n">
-        <v>350.5933333333333</v>
+        <v>350.59</v>
       </c>
       <c r="D224" t="n">
         <v>363.97</v>
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>345.7333333333333</v>
+        <v>345.73</v>
       </c>
       <c r="C226" t="n">
-        <v>348.4933333333333</v>
+        <v>348.49</v>
       </c>
       <c r="D226" t="n">
         <v>352.58</v>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>353.4466666666667</v>
+        <v>353.45</v>
       </c>
       <c r="C229" t="n">
-        <v>352.4066666666667</v>
+        <v>352.41</v>
       </c>
       <c r="D229" t="n">
         <v>360.45</v>
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>355.8333333333333</v>
+        <v>355.83</v>
       </c>
       <c r="C230" t="n">
-        <v>355.5733333333333</v>
+        <v>355.57</v>
       </c>
       <c r="D230" t="n">
         <v>360.92</v>
@@ -5145,10 +5145,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>359.5333333333333</v>
+        <v>359.53</v>
       </c>
       <c r="C231" t="n">
-        <v>356.4633333333333</v>
+        <v>356.46</v>
       </c>
       <c r="D231" t="n">
         <v>363.64</v>
@@ -5187,10 +5187,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>343.5566666666667</v>
+        <v>343.56</v>
       </c>
       <c r="C233" t="n">
-        <v>343.5466666666667</v>
+        <v>343.55</v>
       </c>
       <c r="D233" t="n">
         <v>354.81</v>
@@ -5208,10 +5208,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>351.1266666666667</v>
+        <v>351.13</v>
       </c>
       <c r="C234" t="n">
-        <v>353.3966666666667</v>
+        <v>353.4</v>
       </c>
       <c r="D234" t="n">
         <v>361.55</v>
@@ -5271,10 +5271,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>354.8866666666667</v>
+        <v>354.89</v>
       </c>
       <c r="C237" t="n">
-        <v>345.5366666666667</v>
+        <v>345.54</v>
       </c>
       <c r="D237" t="n">
         <v>362.09</v>
@@ -5292,10 +5292,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>354.2833333333333</v>
+        <v>354.28</v>
       </c>
       <c r="C238" t="n">
-        <v>354.5733333333333</v>
+        <v>354.57</v>
       </c>
       <c r="D238" t="n">
         <v>371.72</v>
@@ -5313,10 +5313,10 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>361.0866666666667</v>
+        <v>361.09</v>
       </c>
       <c r="C239" t="n">
-        <v>361.9966666666666</v>
+        <v>362</v>
       </c>
       <c r="D239" t="n">
         <v>372.8</v>
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>350.9233333333333</v>
+        <v>350.92</v>
       </c>
       <c r="C240" t="n">
-        <v>353.4733333333333</v>
+        <v>353.47</v>
       </c>
       <c r="D240" t="n">
         <v>355.29</v>
@@ -5355,10 +5355,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>331.1066666666667</v>
+        <v>331.11</v>
       </c>
       <c r="C241" t="n">
-        <v>336.8366666666667</v>
+        <v>336.84</v>
       </c>
       <c r="D241" t="n">
         <v>338.01</v>
@@ -5414,10 +5414,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>352.8433333333333</v>
+        <v>352.84</v>
       </c>
       <c r="C244" t="n">
-        <v>360.8533333333333</v>
+        <v>360.85</v>
       </c>
       <c r="D244" t="n">
         <v>366.88</v>
@@ -5456,10 +5456,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>347.8566666666667</v>
+        <v>347.86</v>
       </c>
       <c r="C246" t="n">
-        <v>349.4366666666667</v>
+        <v>349.44</v>
       </c>
       <c r="D246" t="n">
         <v>368.38</v>
@@ -5477,10 +5477,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>353.9133333333333</v>
+        <v>353.91</v>
       </c>
       <c r="C247" t="n">
-        <v>352.4033333333333</v>
+        <v>352.4</v>
       </c>
       <c r="D247" t="n">
         <v>367.11</v>
@@ -5498,10 +5498,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>338.5766666666667</v>
+        <v>338.58</v>
       </c>
       <c r="C248" t="n">
-        <v>345.8966666666667</v>
+        <v>345.9</v>
       </c>
       <c r="D248" t="n">
         <v>361.07</v>
@@ -5540,10 +5540,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>350.7266666666667</v>
+        <v>350.73</v>
       </c>
       <c r="C250" t="n">
-        <v>351.1666666666667</v>
+        <v>351.17</v>
       </c>
       <c r="D250" t="n">
         <v>364.01</v>
@@ -5561,10 +5561,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>345.2433333333333</v>
+        <v>345.24</v>
       </c>
       <c r="C251" t="n">
-        <v>348.8533333333333</v>
+        <v>348.85</v>
       </c>
       <c r="D251" t="n">
         <v>358.05</v>
@@ -5582,10 +5582,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>346.9733333333333</v>
+        <v>346.97</v>
       </c>
       <c r="C252" t="n">
-        <v>349.4833333333333</v>
+        <v>349.48</v>
       </c>
       <c r="D252" t="n">
         <v>361.57</v>
@@ -5603,10 +5603,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>377.5066666666667</v>
+        <v>377.51</v>
       </c>
       <c r="C253" t="n">
-        <v>337.0866666666667</v>
+        <v>337.09</v>
       </c>
       <c r="D253" t="n">
         <v>334.14</v>
@@ -5624,10 +5624,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>352.9833333333333</v>
+        <v>352.98</v>
       </c>
       <c r="C254" t="n">
-        <v>355.6633333333333</v>
+        <v>355.66</v>
       </c>
       <c r="D254" t="n">
         <v>364.18</v>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>353.0166666666667</v>
+        <v>353.02</v>
       </c>
       <c r="C256" t="n">
-        <v>355.1166666666667</v>
+        <v>355.12</v>
       </c>
       <c r="D256" t="n">
         <v>361.41</v>
@@ -5704,10 +5704,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>354.0333333333333</v>
+        <v>354.03</v>
       </c>
       <c r="C258" t="n">
-        <v>359.1733333333333</v>
+        <v>359.17</v>
       </c>
       <c r="D258" t="n">
         <v>368.92</v>
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>338.9333333333333</v>
+        <v>338.93</v>
       </c>
       <c r="C260" t="n">
-        <v>353.2633333333333</v>
+        <v>353.26</v>
       </c>
       <c r="D260" t="n">
         <v>360.24</v>
@@ -5765,10 +5765,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>347.6933333333333</v>
+        <v>347.69</v>
       </c>
       <c r="C261" t="n">
-        <v>355.5233333333333</v>
+        <v>355.52</v>
       </c>
       <c r="D261" t="n">
         <v>358.94</v>
@@ -5786,10 +5786,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>347.7033333333333</v>
+        <v>347.7</v>
       </c>
       <c r="C262" t="n">
-        <v>352.6333333333333</v>
+        <v>352.63</v>
       </c>
       <c r="D262" t="n">
         <v>366.58</v>
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>352.2333333333333</v>
+        <v>352.23</v>
       </c>
       <c r="C263" t="n">
-        <v>354.6733333333333</v>
+        <v>354.67</v>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>355.2666666666667</v>
+        <v>355.27</v>
       </c>
       <c r="C264" t="n">
-        <v>358.8366666666667</v>
+        <v>358.84</v>
       </c>
       <c r="D264" t="n">
         <v>370.89</v>
@@ -5847,10 +5847,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>358.2266666666667</v>
+        <v>358.23</v>
       </c>
       <c r="C265" t="n">
-        <v>354.3266666666667</v>
+        <v>354.33</v>
       </c>
       <c r="D265" t="n">
         <v>360.65</v>
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>343.4933333333333</v>
+        <v>343.49</v>
       </c>
       <c r="C269" t="n">
-        <v>349.8633333333333</v>
+        <v>349.86</v>
       </c>
       <c r="D269" t="n">
         <v>359.51</v>
@@ -5969,10 +5969,10 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>349.9466666666667</v>
+        <v>349.95</v>
       </c>
       <c r="C271" t="n">
-        <v>349.4366666666667</v>
+        <v>349.44</v>
       </c>
       <c r="D271" t="n">
         <v>357.26</v>
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>338.3333333333333</v>
+        <v>338.33</v>
       </c>
       <c r="C272" t="n">
-        <v>341.4433333333333</v>
+        <v>341.44</v>
       </c>
       <c r="D272" t="n">
         <v>350.81</v>
@@ -6032,10 +6032,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>340.1633333333333</v>
+        <v>340.16</v>
       </c>
       <c r="C274" t="n">
-        <v>348.4133333333333</v>
+        <v>348.41</v>
       </c>
       <c r="D274" t="n">
         <v>356.38</v>
@@ -6053,10 +6053,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>328.3466666666667</v>
+        <v>328.35</v>
       </c>
       <c r="C275" t="n">
-        <v>335.7366666666667</v>
+        <v>335.74</v>
       </c>
       <c r="D275" t="n">
         <v>346.3</v>
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>355.7666666666667</v>
+        <v>355.77</v>
       </c>
       <c r="C276" t="n">
-        <v>357.4866666666667</v>
+        <v>357.49</v>
       </c>
       <c r="D276" t="n">
         <v>363.51</v>
@@ -6095,10 +6095,10 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>334.5566666666667</v>
+        <v>334.56</v>
       </c>
       <c r="C277" t="n">
-        <v>341.7266666666667</v>
+        <v>341.73</v>
       </c>
       <c r="D277" t="n">
         <v>361.56</v>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>344.5833333333333</v>
+        <v>344.58</v>
       </c>
       <c r="C278" t="n">
-        <v>350.0633333333333</v>
+        <v>350.06</v>
       </c>
       <c r="D278" t="n">
         <v>361.22</v>
@@ -6137,10 +6137,10 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>334.1966666666667</v>
+        <v>334.2</v>
       </c>
       <c r="C279" t="n">
-        <v>338.5566666666667</v>
+        <v>338.56</v>
       </c>
       <c r="D279" t="n">
         <v>345.27</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>345.6266666666667</v>
+        <v>345.63</v>
       </c>
       <c r="C282" t="n">
-        <v>346.4866666666667</v>
+        <v>346.49</v>
       </c>
       <c r="D282" t="n">
         <v>361.42</v>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>355.2666666666667</v>
+        <v>355.27</v>
       </c>
       <c r="C284" t="n">
-        <v>351.5066666666667</v>
+        <v>351.51</v>
       </c>
       <c r="D284" t="n">
         <v>366.25</v>
@@ -6297,10 +6297,10 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>343.1233333333333</v>
+        <v>343.12</v>
       </c>
       <c r="C287" t="n">
-        <v>350.5933333333333</v>
+        <v>350.59</v>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
@@ -6316,10 +6316,10 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>329.2333333333333</v>
+        <v>329.23</v>
       </c>
       <c r="C288" t="n">
-        <v>341.8433333333333</v>
+        <v>341.84</v>
       </c>
       <c r="D288" t="n">
         <v>354.91</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>353.0666666666667</v>
+        <v>353.07</v>
       </c>
       <c r="C289" t="n">
-        <v>353.8766666666667</v>
+        <v>353.88</v>
       </c>
       <c r="D289" t="n">
         <v>361.57</v>
@@ -6398,10 +6398,10 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>359.5666666666667</v>
+        <v>359.57</v>
       </c>
       <c r="C292" t="n">
-        <v>341.6866666666667</v>
+        <v>341.69</v>
       </c>
       <c r="D292" t="n">
         <v>347.32</v>
@@ -6440,10 +6440,10 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>356.2066666666667</v>
+        <v>356.21</v>
       </c>
       <c r="C294" t="n">
-        <v>350.6766666666667</v>
+        <v>350.68</v>
       </c>
       <c r="D294" t="n">
         <v>353.49</v>
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>356.7266666666667</v>
+        <v>356.73</v>
       </c>
       <c r="C297" t="n">
-        <v>353.8666666666667</v>
+        <v>353.87</v>
       </c>
       <c r="D297" t="n">
         <v>365</v>
@@ -6520,10 +6520,10 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>341.4066666666667</v>
+        <v>341.41</v>
       </c>
       <c r="C298" t="n">
-        <v>345.4266666666667</v>
+        <v>345.43</v>
       </c>
       <c r="D298" t="n">
         <v>358.43</v>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="B299" t="inlineStr"/>
       <c r="C299" t="n">
-        <v>343.4333333333333</v>
+        <v>343.43</v>
       </c>
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr">
@@ -6621,10 +6621,10 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>354.1966666666667</v>
+        <v>354.2</v>
       </c>
       <c r="C303" t="n">
-        <v>351.7166666666667</v>
+        <v>351.72</v>
       </c>
       <c r="D303" t="n">
         <v>361.88</v>
@@ -6642,10 +6642,10 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>338.7333333333333</v>
+        <v>338.73</v>
       </c>
       <c r="C304" t="n">
-        <v>344.8933333333333</v>
+        <v>344.89</v>
       </c>
       <c r="D304" t="n">
         <v>358.35</v>
@@ -6669,7 +6669,7 @@
         <v>345.87</v>
       </c>
       <c r="D305" t="n">
-        <v>357.1799999999999</v>
+        <v>357.18</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -6684,10 +6684,10 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>351.5433333333333</v>
+        <v>351.54</v>
       </c>
       <c r="C306" t="n">
-        <v>353.3633333333333</v>
+        <v>353.36</v>
       </c>
       <c r="D306" t="n">
         <v>360.37</v>
@@ -6705,10 +6705,10 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>351.9933333333333</v>
+        <v>351.99</v>
       </c>
       <c r="C307" t="n">
-        <v>354.5933333333333</v>
+        <v>354.59</v>
       </c>
       <c r="D307" t="n">
         <v>364.73</v>
@@ -6764,10 +6764,10 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>359.0033333333333</v>
+        <v>359</v>
       </c>
       <c r="C310" t="n">
-        <v>357.2833333333333</v>
+        <v>357.28</v>
       </c>
       <c r="D310" t="n">
         <v>365.66</v>
@@ -6785,10 +6785,10 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>352.7866666666667</v>
+        <v>352.79</v>
       </c>
       <c r="C311" t="n">
-        <v>352.1766666666667</v>
+        <v>352.18</v>
       </c>
       <c r="D311" t="n">
         <v>357.99</v>
@@ -6806,10 +6806,10 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>358.0933333333333</v>
+        <v>358.09</v>
       </c>
       <c r="C312" t="n">
-        <v>356.2633333333333</v>
+        <v>356.26</v>
       </c>
       <c r="D312" t="n">
         <v>357.77</v>
@@ -6848,10 +6848,10 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>357.4733333333333</v>
+        <v>357.47</v>
       </c>
       <c r="C314" t="n">
-        <v>357.2933333333333</v>
+        <v>357.29</v>
       </c>
       <c r="D314" t="inlineStr"/>
       <c r="E314" t="inlineStr">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>362.1733333333333</v>
+        <v>362.17</v>
       </c>
       <c r="C315" t="n">
-        <v>361.5133333333333</v>
+        <v>361.51</v>
       </c>
       <c r="D315" t="n">
         <v>366.58</v>
@@ -6888,10 +6888,10 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>358.4366666666667</v>
+        <v>358.44</v>
       </c>
       <c r="C316" t="n">
-        <v>362.1366666666667</v>
+        <v>362.14</v>
       </c>
       <c r="D316" t="n">
         <v>370.41</v>
@@ -6926,10 +6926,10 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>335.3933333333333</v>
+        <v>335.39</v>
       </c>
       <c r="C318" t="n">
-        <v>337.8433333333333</v>
+        <v>337.84</v>
       </c>
       <c r="D318" t="n">
         <v>354.62</v>
@@ -6947,10 +6947,10 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>352.7666666666667</v>
+        <v>352.77</v>
       </c>
       <c r="C319" t="n">
-        <v>360.4366666666667</v>
+        <v>360.44</v>
       </c>
       <c r="D319" t="n">
         <v>373.95</v>
@@ -6968,10 +6968,10 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>354.7233333333333</v>
+        <v>354.72</v>
       </c>
       <c r="C320" t="n">
-        <v>352.1833333333333</v>
+        <v>352.18</v>
       </c>
       <c r="D320" t="n">
         <v>356.53</v>
@@ -6989,7 +6989,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>320.7533333333333</v>
+        <v>320.75</v>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr"/>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>348.6466666666667</v>
+        <v>348.65</v>
       </c>
       <c r="C323" t="n">
-        <v>350.7366666666667</v>
+        <v>350.74</v>
       </c>
       <c r="D323" t="n">
         <v>359.24</v>
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>346.5133333333333</v>
+        <v>346.51</v>
       </c>
       <c r="C326" t="n">
-        <v>345.2233333333333</v>
+        <v>345.22</v>
       </c>
       <c r="D326" t="n">
         <v>355.99</v>
@@ -7107,10 +7107,10 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>345.8933333333333</v>
+        <v>345.89</v>
       </c>
       <c r="C327" t="n">
-        <v>344.8433333333333</v>
+        <v>344.84</v>
       </c>
       <c r="D327" t="n">
         <v>353.3</v>
@@ -7149,10 +7149,10 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>349.0033333333333</v>
+        <v>349</v>
       </c>
       <c r="C329" t="n">
-        <v>353.9433333333333</v>
+        <v>353.94</v>
       </c>
       <c r="D329" t="n">
         <v>366.84</v>
@@ -7170,10 +7170,10 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>337.2933333333333</v>
+        <v>337.29</v>
       </c>
       <c r="C330" t="n">
-        <v>346.2333333333333</v>
+        <v>346.23</v>
       </c>
       <c r="D330" t="n">
         <v>357.07</v>
@@ -7191,7 +7191,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>345.3766666666667</v>
+        <v>345.38</v>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr"/>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="n">
-        <v>352.6866666666667</v>
+        <v>352.69</v>
       </c>
       <c r="D332" t="n">
         <v>356.04</v>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>358.0633333333333</v>
+        <v>358.06</v>
       </c>
       <c r="C333" t="n">
-        <v>354.7333333333333</v>
+        <v>354.73</v>
       </c>
       <c r="D333" t="n">
         <v>364.02</v>
@@ -7290,10 +7290,10 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>339.3933333333333</v>
+        <v>339.39</v>
       </c>
       <c r="C336" t="n">
-        <v>347.0333333333333</v>
+        <v>347.03</v>
       </c>
       <c r="D336" t="n">
         <v>346.42</v>
@@ -7311,10 +7311,10 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>346.4333333333333</v>
+        <v>346.43</v>
       </c>
       <c r="C337" t="n">
-        <v>345.3733333333333</v>
+        <v>345.37</v>
       </c>
       <c r="D337" t="n">
         <v>354.8</v>
@@ -7353,10 +7353,10 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>352.6133333333333</v>
+        <v>352.61</v>
       </c>
       <c r="C339" t="n">
-        <v>357.8033333333333</v>
+        <v>357.8</v>
       </c>
       <c r="D339" t="n">
         <v>416.99</v>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>340.7666666666667</v>
+        <v>340.77</v>
       </c>
       <c r="C340" t="n">
-        <v>342.7266666666667</v>
+        <v>342.73</v>
       </c>
       <c r="D340" t="n">
         <v>346.35</v>
@@ -7395,10 +7395,10 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>345.4266666666667</v>
+        <v>345.43</v>
       </c>
       <c r="C341" t="n">
-        <v>348.9766666666667</v>
+        <v>348.98</v>
       </c>
       <c r="D341" t="n">
         <v>358.7</v>
@@ -7416,10 +7416,10 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>370.6833333333333</v>
+        <v>370.68</v>
       </c>
       <c r="C342" t="n">
-        <v>365.5233333333333</v>
+        <v>365.52</v>
       </c>
       <c r="D342" t="n">
         <v>377.57</v>
@@ -7458,7 +7458,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>355.9466666666667</v>
+        <v>355.95</v>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="n">
@@ -7477,10 +7477,10 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>350.1533333333333</v>
+        <v>350.15</v>
       </c>
       <c r="C345" t="n">
-        <v>356.1933333333333</v>
+        <v>356.19</v>
       </c>
       <c r="D345" t="n">
         <v>371.51</v>
@@ -7498,10 +7498,10 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>359.6966666666667</v>
+        <v>359.7</v>
       </c>
       <c r="C346" t="n">
-        <v>360.9466666666667</v>
+        <v>360.95</v>
       </c>
       <c r="D346" t="n">
         <v>374.64</v>
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>347.1166666666667</v>
+        <v>347.12</v>
       </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr"/>
@@ -7574,10 +7574,10 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>349.5466666666667</v>
+        <v>349.55</v>
       </c>
       <c r="C350" t="n">
-        <v>350.6566666666667</v>
+        <v>350.66</v>
       </c>
       <c r="D350" t="n">
         <v>357.67</v>
@@ -7614,10 +7614,10 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>351.3866666666667</v>
+        <v>351.39</v>
       </c>
       <c r="C352" t="n">
-        <v>353.8066666666667</v>
+        <v>353.81</v>
       </c>
       <c r="D352" t="n">
         <v>360.53</v>
@@ -7635,10 +7635,10 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>344.8666666666667</v>
+        <v>344.87</v>
       </c>
       <c r="C353" t="n">
-        <v>354.9066666666667</v>
+        <v>354.91</v>
       </c>
       <c r="D353" t="n">
         <v>363.54</v>
@@ -7656,10 +7656,10 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>347.3133333333333</v>
+        <v>347.31</v>
       </c>
       <c r="C354" t="n">
-        <v>358.0333333333333</v>
+        <v>358.03</v>
       </c>
       <c r="D354" t="n">
         <v>369.9</v>
@@ -7677,10 +7677,10 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>337.9766666666667</v>
+        <v>337.98</v>
       </c>
       <c r="C355" t="n">
-        <v>347.6166666666667</v>
+        <v>347.62</v>
       </c>
       <c r="D355" t="n">
         <v>349.61</v>
@@ -7736,7 +7736,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>400.4566666666667</v>
+        <v>400.46</v>
       </c>
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr"/>
@@ -7753,10 +7753,10 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>355.3433333333333</v>
+        <v>355.34</v>
       </c>
       <c r="C359" t="n">
-        <v>355.3633333333333</v>
+        <v>355.36</v>
       </c>
       <c r="D359" t="inlineStr"/>
       <c r="E359" t="inlineStr">
@@ -7772,10 +7772,10 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>346.9633333333333</v>
+        <v>346.96</v>
       </c>
       <c r="C360" t="n">
-        <v>350.8333333333333</v>
+        <v>350.83</v>
       </c>
       <c r="D360" t="n">
         <v>364.68</v>
@@ -7793,10 +7793,10 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>340.7966666666667</v>
+        <v>340.8</v>
       </c>
       <c r="C361" t="n">
-        <v>346.2466666666667</v>
+        <v>346.25</v>
       </c>
       <c r="D361" t="n">
         <v>345.66</v>
@@ -7835,10 +7835,10 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>342.9633333333333</v>
+        <v>342.96</v>
       </c>
       <c r="C363" t="n">
-        <v>343.5033333333333</v>
+        <v>343.5</v>
       </c>
       <c r="D363" t="n">
         <v>356.43</v>
@@ -7856,10 +7856,10 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>345.5133333333333</v>
+        <v>345.51</v>
       </c>
       <c r="C364" t="n">
-        <v>345.0733333333333</v>
+        <v>345.07</v>
       </c>
       <c r="D364" t="n">
         <v>355.75</v>
@@ -7877,10 +7877,10 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>355.4733333333333</v>
+        <v>355.47</v>
       </c>
       <c r="C365" t="n">
-        <v>361.0633333333333</v>
+        <v>361.06</v>
       </c>
       <c r="D365" t="n">
         <v>368.16</v>
@@ -7898,10 +7898,10 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>346.4366666666667</v>
+        <v>346.44</v>
       </c>
       <c r="C366" t="n">
-        <v>371.4366666666667</v>
+        <v>371.44</v>
       </c>
       <c r="D366" t="n">
         <v>372.22</v>
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>363.9333333333333</v>
+        <v>363.93</v>
       </c>
       <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr"/>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>396.1233333333333</v>
+        <v>396.12</v>
       </c>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr"/>
@@ -7970,10 +7970,10 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>362.1266666666667</v>
+        <v>362.13</v>
       </c>
       <c r="C370" t="n">
-        <v>361.0166666666667</v>
+        <v>361.02</v>
       </c>
       <c r="D370" t="n">
         <v>370.93</v>
@@ -7991,13 +7991,13 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>346.0066666666667</v>
+        <v>346.01</v>
       </c>
       <c r="C371" t="n">
-        <v>353.6466666666667</v>
+        <v>353.65</v>
       </c>
       <c r="D371" t="n">
-        <v>366.9500000000001</v>
+        <v>366.95</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>343.3266666666667</v>
+        <v>343.33</v>
       </c>
       <c r="C373" t="n">
-        <v>335.1366666666667</v>
+        <v>335.14</v>
       </c>
       <c r="D373" t="inlineStr"/>
       <c r="E373" t="inlineStr">
@@ -8048,10 +8048,10 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>362.9233333333333</v>
+        <v>362.92</v>
       </c>
       <c r="C374" t="n">
-        <v>356.6033333333333</v>
+        <v>356.6</v>
       </c>
       <c r="D374" t="n">
         <v>363.94</v>
@@ -8090,10 +8090,10 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>353.9166666666667</v>
+        <v>353.92</v>
       </c>
       <c r="C376" t="n">
-        <v>351.1566666666667</v>
+        <v>351.16</v>
       </c>
       <c r="D376" t="n">
         <v>366.77</v>
@@ -8111,10 +8111,10 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>335.3066666666667</v>
+        <v>335.31</v>
       </c>
       <c r="C377" t="n">
-        <v>339.0266666666667</v>
+        <v>339.03</v>
       </c>
       <c r="D377" t="inlineStr"/>
       <c r="E377" t="inlineStr">
@@ -8149,10 +8149,10 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>344.6466666666667</v>
+        <v>344.65</v>
       </c>
       <c r="C379" t="n">
-        <v>345.4866666666667</v>
+        <v>345.49</v>
       </c>
       <c r="D379" t="n">
         <v>356.9</v>
@@ -8170,10 +8170,10 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>354.8633333333333</v>
+        <v>354.86</v>
       </c>
       <c r="C380" t="n">
-        <v>358.7333333333333</v>
+        <v>358.73</v>
       </c>
       <c r="D380" t="n">
         <v>364.04</v>
@@ -8191,10 +8191,10 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>359.4133333333333</v>
+        <v>359.41</v>
       </c>
       <c r="C381" t="n">
-        <v>360.7333333333333</v>
+        <v>360.73</v>
       </c>
       <c r="D381" t="n">
         <v>373.9</v>
@@ -8288,10 +8288,10 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>348.0866666666667</v>
+        <v>348.09</v>
       </c>
       <c r="C386" t="n">
-        <v>353.0666666666667</v>
+        <v>353.07</v>
       </c>
       <c r="D386" t="n">
         <v>362.3</v>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>342.6333333333333</v>
+        <v>342.63</v>
       </c>
       <c r="C387" t="n">
-        <v>345.3333333333333</v>
+        <v>345.33</v>
       </c>
       <c r="D387" t="n">
         <v>356.54</v>
@@ -8391,10 +8391,10 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>354.6033333333333</v>
+        <v>354.6</v>
       </c>
       <c r="C391" t="n">
-        <v>355.7433333333333</v>
+        <v>355.74</v>
       </c>
       <c r="D391" t="n">
         <v>367.64</v>
@@ -8412,10 +8412,10 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>354.5633333333333</v>
+        <v>354.56</v>
       </c>
       <c r="C392" t="n">
-        <v>354.4133333333333</v>
+        <v>354.41</v>
       </c>
       <c r="D392" t="n">
         <v>363.33</v>
@@ -8473,10 +8473,10 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>352.7566666666667</v>
+        <v>352.76</v>
       </c>
       <c r="C395" t="n">
-        <v>353.8366666666667</v>
+        <v>353.84</v>
       </c>
       <c r="D395" t="inlineStr"/>
       <c r="E395" t="inlineStr">
@@ -8492,10 +8492,10 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>311.1266666666667</v>
+        <v>311.13</v>
       </c>
       <c r="C396" t="n">
-        <v>319.0466666666667</v>
+        <v>319.05</v>
       </c>
       <c r="D396" t="inlineStr"/>
       <c r="E396" t="inlineStr">
@@ -8511,10 +8511,10 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>342.6033333333333</v>
+        <v>342.6</v>
       </c>
       <c r="C397" t="n">
-        <v>344.6833333333333</v>
+        <v>344.68</v>
       </c>
       <c r="D397" t="n">
         <v>354.99</v>
@@ -8532,10 +8532,10 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>329.9166666666667</v>
+        <v>329.92</v>
       </c>
       <c r="C398" t="n">
-        <v>345.9166666666667</v>
+        <v>345.92</v>
       </c>
       <c r="D398" t="n">
         <v>356.73</v>
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>351.3166666666667</v>
+        <v>351.32</v>
       </c>
       <c r="C399" t="n">
-        <v>337.6566666666667</v>
+        <v>337.66</v>
       </c>
       <c r="D399" t="n">
         <v>360</v>
@@ -8574,10 +8574,10 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>325.3433333333333</v>
+        <v>325.34</v>
       </c>
       <c r="C400" t="n">
-        <v>333.0633333333333</v>
+        <v>333.06</v>
       </c>
       <c r="D400" t="n">
         <v>341.25</v>
@@ -8595,10 +8595,10 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>337.4433333333333</v>
+        <v>337.44</v>
       </c>
       <c r="C401" t="n">
-        <v>341.2733333333333</v>
+        <v>341.27</v>
       </c>
       <c r="D401" t="n">
         <v>352.91</v>
@@ -8616,10 +8616,10 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>341.9466666666667</v>
+        <v>341.95</v>
       </c>
       <c r="C402" t="n">
-        <v>345.9166666666667</v>
+        <v>345.92</v>
       </c>
       <c r="D402" t="n">
         <v>348.55</v>
@@ -8679,10 +8679,10 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>343.0233333333333</v>
+        <v>343.02</v>
       </c>
       <c r="C405" t="n">
-        <v>348.5033333333333</v>
+        <v>348.5</v>
       </c>
       <c r="D405" t="n">
         <v>350.08</v>
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>331.5633333333333</v>
+        <v>331.56</v>
       </c>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="n">
@@ -8761,10 +8761,10 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>355.2733333333333</v>
+        <v>355.27</v>
       </c>
       <c r="C409" t="n">
-        <v>350.0033333333333</v>
+        <v>350</v>
       </c>
       <c r="D409" t="n">
         <v>362.74</v>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>340.2233333333333</v>
+        <v>340.22</v>
       </c>
       <c r="C410" t="n">
-        <v>347.9533333333333</v>
+        <v>347.95</v>
       </c>
       <c r="D410" t="n">
         <v>364.36</v>
@@ -8820,10 +8820,10 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>343.0133333333333</v>
+        <v>343.01</v>
       </c>
       <c r="C412" t="n">
-        <v>342.7233333333333</v>
+        <v>342.72</v>
       </c>
       <c r="D412" t="n">
         <v>355.83</v>
@@ -8883,10 +8883,10 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>346.0233333333333</v>
+        <v>346.02</v>
       </c>
       <c r="C415" t="n">
-        <v>356.6833333333333</v>
+        <v>356.68</v>
       </c>
       <c r="D415" t="n">
         <v>368.41</v>
@@ -8904,10 +8904,10 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>342.3266666666667</v>
+        <v>342.33</v>
       </c>
       <c r="C416" t="n">
-        <v>346.6966666666667</v>
+        <v>346.7</v>
       </c>
       <c r="D416" t="n">
         <v>361.54</v>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>342.8566666666667</v>
+        <v>342.86</v>
       </c>
       <c r="C418" t="n">
-        <v>350.8366666666667</v>
+        <v>350.84</v>
       </c>
       <c r="D418" t="n">
         <v>356.92</v>
@@ -8988,10 +8988,10 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>351.8033333333333</v>
+        <v>351.8</v>
       </c>
       <c r="C420" t="n">
-        <v>354.8133333333333</v>
+        <v>354.81</v>
       </c>
       <c r="D420" t="n">
         <v>363.99</v>
@@ -9009,10 +9009,10 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>343.4033333333333</v>
+        <v>343.4</v>
       </c>
       <c r="C421" t="n">
-        <v>344.4433333333333</v>
+        <v>344.44</v>
       </c>
       <c r="D421" t="n">
         <v>362.95</v>
@@ -9030,10 +9030,10 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>343.7833333333333</v>
+        <v>343.78</v>
       </c>
       <c r="C422" t="n">
-        <v>337.7033333333333</v>
+        <v>337.7</v>
       </c>
       <c r="D422" t="n">
         <v>353.88</v>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B423" t="inlineStr"/>
       <c r="C423" t="n">
-        <v>365.5133333333333</v>
+        <v>365.51</v>
       </c>
       <c r="D423" t="n">
         <v>368.65</v>
@@ -9070,7 +9070,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>339.1166666666667</v>
+        <v>339.12</v>
       </c>
       <c r="C424" t="inlineStr"/>
       <c r="D424" t="inlineStr"/>
@@ -9087,10 +9087,10 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>349.0133333333333</v>
+        <v>349.01</v>
       </c>
       <c r="C425" t="n">
-        <v>347.1433333333333</v>
+        <v>347.14</v>
       </c>
       <c r="D425" t="n">
         <v>353.98</v>
@@ -9108,10 +9108,10 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>360.3466666666667</v>
+        <v>360.35</v>
       </c>
       <c r="C426" t="n">
-        <v>359.8366666666667</v>
+        <v>359.84</v>
       </c>
       <c r="D426" t="n">
         <v>372.97</v>
@@ -9188,10 +9188,10 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>336.3133333333333</v>
+        <v>336.31</v>
       </c>
       <c r="C430" t="n">
-        <v>336.1933333333333</v>
+        <v>336.19</v>
       </c>
       <c r="D430" t="n">
         <v>347.36</v>
@@ -9247,7 +9247,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>348.4666666666667</v>
+        <v>348.47</v>
       </c>
       <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr"/>
@@ -9304,10 +9304,10 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>343.9033333333333</v>
+        <v>343.9</v>
       </c>
       <c r="C436" t="n">
-        <v>349.5733333333333</v>
+        <v>349.57</v>
       </c>
       <c r="D436" t="n">
         <v>363.17</v>
@@ -9367,10 +9367,10 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>333.2066666666667</v>
+        <v>333.21</v>
       </c>
       <c r="C439" t="n">
-        <v>340.6266666666667</v>
+        <v>340.63</v>
       </c>
       <c r="D439" t="n">
         <v>347.95</v>
@@ -9388,10 +9388,10 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>356.0133333333333</v>
+        <v>356.01</v>
       </c>
       <c r="C440" t="n">
-        <v>357.2433333333333</v>
+        <v>357.24</v>
       </c>
       <c r="D440" t="n">
         <v>366.88</v>
@@ -9409,10 +9409,10 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>347.4533333333333</v>
+        <v>347.45</v>
       </c>
       <c r="C441" t="n">
-        <v>344.8533333333333</v>
+        <v>344.85</v>
       </c>
       <c r="D441" t="n">
         <v>372.85</v>
@@ -9489,10 +9489,10 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>326.3633333333333</v>
+        <v>326.36</v>
       </c>
       <c r="C445" t="n">
-        <v>333.6133333333333</v>
+        <v>333.61</v>
       </c>
       <c r="D445" t="n">
         <v>350.33</v>
@@ -9510,10 +9510,10 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>350.0566666666667</v>
+        <v>350.06</v>
       </c>
       <c r="C446" t="n">
-        <v>350.7666666666667</v>
+        <v>350.77</v>
       </c>
       <c r="D446" t="n">
         <v>360.96</v>
@@ -9590,10 +9590,10 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>344.2666666666667</v>
+        <v>344.27</v>
       </c>
       <c r="C450" t="n">
-        <v>344.7666666666667</v>
+        <v>344.77</v>
       </c>
       <c r="D450" t="n">
         <v>358.61</v>
@@ -9611,10 +9611,10 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>351.2933333333333</v>
+        <v>351.29</v>
       </c>
       <c r="C451" t="n">
-        <v>357.6633333333333</v>
+        <v>357.66</v>
       </c>
       <c r="D451" t="n">
         <v>366.06</v>
@@ -9632,10 +9632,10 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>350.9166666666667</v>
+        <v>350.92</v>
       </c>
       <c r="C452" t="n">
-        <v>353.3366666666667</v>
+        <v>353.34</v>
       </c>
       <c r="D452" t="n">
         <v>361.16</v>
@@ -9653,10 +9653,10 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>349.9266666666667</v>
+        <v>349.93</v>
       </c>
       <c r="C453" t="n">
-        <v>353.4766666666667</v>
+        <v>353.48</v>
       </c>
       <c r="D453" t="n">
         <v>369.08</v>
@@ -9674,10 +9674,10 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>357.7466666666667</v>
+        <v>357.75</v>
       </c>
       <c r="C454" t="n">
-        <v>353.5866666666667</v>
+        <v>353.59</v>
       </c>
       <c r="D454" t="n">
         <v>368.01</v>
@@ -9733,10 +9733,10 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>334.7366666666667</v>
+        <v>334.74</v>
       </c>
       <c r="C457" t="n">
-        <v>347.1566666666667</v>
+        <v>347.16</v>
       </c>
       <c r="D457" t="n">
         <v>355.49</v>
@@ -9754,10 +9754,10 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>355.0466666666667</v>
+        <v>355.05</v>
       </c>
       <c r="C458" t="n">
-        <v>355.0866666666667</v>
+        <v>355.09</v>
       </c>
       <c r="D458" t="n">
         <v>360.97</v>
@@ -9775,10 +9775,10 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>343.3166666666667</v>
+        <v>343.32</v>
       </c>
       <c r="C459" t="n">
-        <v>346.4466666666667</v>
+        <v>346.45</v>
       </c>
       <c r="D459" t="n">
         <v>362.66</v>
@@ -9796,10 +9796,10 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>344.3266666666667</v>
+        <v>344.33</v>
       </c>
       <c r="C460" t="n">
-        <v>348.3366666666667</v>
+        <v>348.34</v>
       </c>
       <c r="D460" t="n">
         <v>356.78</v>
@@ -9859,10 +9859,10 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>351.2733333333333</v>
+        <v>351.27</v>
       </c>
       <c r="C463" t="n">
-        <v>350.3033333333333</v>
+        <v>350.3</v>
       </c>
       <c r="D463" t="n">
         <v>354.39</v>
@@ -9880,10 +9880,10 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>328.3033333333333</v>
+        <v>328.3</v>
       </c>
       <c r="C464" t="n">
-        <v>330.1133333333333</v>
+        <v>330.11</v>
       </c>
       <c r="D464" t="n">
         <v>338.84</v>
@@ -9964,10 +9964,10 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>342.6233333333333</v>
+        <v>342.62</v>
       </c>
       <c r="C468" t="n">
-        <v>333.4133333333333</v>
+        <v>333.41</v>
       </c>
       <c r="D468" t="n">
         <v>353.73</v>
@@ -9985,10 +9985,10 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>348.9933333333333</v>
+        <v>348.99</v>
       </c>
       <c r="C469" t="n">
-        <v>354.7133333333333</v>
+        <v>354.71</v>
       </c>
       <c r="D469" t="n">
         <v>360.48</v>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="B470" t="inlineStr"/>
       <c r="C470" t="n">
-        <v>376.4966666666666</v>
+        <v>376.5</v>
       </c>
       <c r="D470" t="n">
         <v>343.45</v>
@@ -10025,10 +10025,10 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>342.5266666666667</v>
+        <v>342.53</v>
       </c>
       <c r="C471" t="n">
-        <v>351.3266666666667</v>
+        <v>351.33</v>
       </c>
       <c r="D471" t="n">
         <v>357.76</v>
@@ -10046,10 +10046,10 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>347.5066666666667</v>
+        <v>347.51</v>
       </c>
       <c r="C472" t="n">
-        <v>353.5666666666667</v>
+        <v>353.57</v>
       </c>
       <c r="D472" t="n">
         <v>368.5</v>
@@ -10067,10 +10067,10 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>347.0066666666667</v>
+        <v>347.01</v>
       </c>
       <c r="C473" t="n">
-        <v>351.2366666666667</v>
+        <v>351.24</v>
       </c>
       <c r="D473" t="n">
         <v>367.85</v>
@@ -10088,10 +10088,10 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>345.9233333333333</v>
+        <v>345.92</v>
       </c>
       <c r="C474" t="n">
-        <v>341.2133333333333</v>
+        <v>341.21</v>
       </c>
       <c r="D474" t="n">
         <v>350.38</v>
@@ -10189,10 +10189,10 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>336.0433333333333</v>
+        <v>336.04</v>
       </c>
       <c r="C479" t="n">
-        <v>339.4233333333333</v>
+        <v>339.42</v>
       </c>
       <c r="D479" t="n">
         <v>349.13</v>
@@ -10210,10 +10210,10 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>363.0533333333333</v>
+        <v>363.05</v>
       </c>
       <c r="C480" t="n">
-        <v>358.7133333333333</v>
+        <v>358.71</v>
       </c>
       <c r="D480" t="n">
         <v>372.1</v>
@@ -10231,10 +10231,10 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>349.7366666666667</v>
+        <v>349.74</v>
       </c>
       <c r="C481" t="n">
-        <v>352.0566666666667</v>
+        <v>352.06</v>
       </c>
       <c r="D481" t="n">
         <v>366.17</v>
@@ -10252,10 +10252,10 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>351.9233333333333</v>
+        <v>351.92</v>
       </c>
       <c r="C482" t="n">
-        <v>353.2133333333333</v>
+        <v>353.21</v>
       </c>
       <c r="D482" t="n">
         <v>366.69</v>
@@ -10273,10 +10273,10 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>334.7966666666667</v>
+        <v>334.8</v>
       </c>
       <c r="C483" t="n">
-        <v>325.4466666666667</v>
+        <v>325.45</v>
       </c>
       <c r="D483" t="n">
         <v>362.83</v>
@@ -10300,7 +10300,7 @@
         <v>355.76</v>
       </c>
       <c r="D484" t="n">
-        <v>365.5700000000001</v>
+        <v>365.57</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -10336,10 +10336,10 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>344.9866666666667</v>
+        <v>344.99</v>
       </c>
       <c r="C486" t="n">
-        <v>340.8266666666667</v>
+        <v>340.83</v>
       </c>
       <c r="D486" t="n">
         <v>350.99</v>
@@ -10357,10 +10357,10 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>334.3333333333333</v>
+        <v>334.33</v>
       </c>
       <c r="C487" t="n">
-        <v>342.9433333333333</v>
+        <v>342.94</v>
       </c>
       <c r="D487" t="n">
         <v>345.62</v>
@@ -10399,10 +10399,10 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>349.2533333333333</v>
+        <v>349.25</v>
       </c>
       <c r="C489" t="n">
-        <v>350.9233333333333</v>
+        <v>350.92</v>
       </c>
       <c r="D489" t="n">
         <v>365.53</v>
@@ -10420,10 +10420,10 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>342.4733333333333</v>
+        <v>342.47</v>
       </c>
       <c r="C490" t="n">
-        <v>352.9733333333333</v>
+        <v>352.97</v>
       </c>
       <c r="D490" t="n">
         <v>363.78</v>
@@ -10441,10 +10441,10 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>359.8633333333333</v>
+        <v>359.86</v>
       </c>
       <c r="C491" t="n">
-        <v>359.4933333333333</v>
+        <v>359.49</v>
       </c>
       <c r="D491" t="n">
         <v>368.81</v>
@@ -10479,10 +10479,10 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>360.3433333333333</v>
+        <v>360.34</v>
       </c>
       <c r="C493" t="n">
-        <v>361.5233333333333</v>
+        <v>361.52</v>
       </c>
       <c r="D493" t="n">
         <v>373.66</v>
@@ -10563,10 +10563,10 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>334.9233333333333</v>
+        <v>334.92</v>
       </c>
       <c r="C497" t="n">
-        <v>336.1133333333333</v>
+        <v>336.11</v>
       </c>
       <c r="D497" t="n">
         <v>346.98</v>
@@ -10584,10 +10584,10 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>335.0133333333333</v>
+        <v>335.01</v>
       </c>
       <c r="C498" t="n">
-        <v>342.1733333333333</v>
+        <v>342.17</v>
       </c>
       <c r="D498" t="n">
         <v>344.79</v>
@@ -10605,10 +10605,10 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>348.8433333333333</v>
+        <v>348.84</v>
       </c>
       <c r="C499" t="n">
-        <v>355.8033333333333</v>
+        <v>355.8</v>
       </c>
       <c r="D499" t="n">
         <v>366.71</v>
@@ -10626,10 +10626,10 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>354.2566666666667</v>
+        <v>354.26</v>
       </c>
       <c r="C500" t="n">
-        <v>355.8966666666667</v>
+        <v>355.9</v>
       </c>
       <c r="D500" t="n">
         <v>365.21</v>
@@ -17508,7 +17508,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.1331779798733821</v>
+        <v>-0.1332054730206597</v>
       </c>
       <c r="J2" t="n">
         <v>501</v>
@@ -17517,19 +17517,19 @@
         <v>462</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007694038473402887</v>
+        <v>0.007697011945895782</v>
       </c>
       <c r="M2" t="n">
-        <v>7.642116822314168</v>
+        <v>7.642243915294539</v>
       </c>
       <c r="N2" t="n">
-        <v>109.8952725791769</v>
+        <v>109.8978495788298</v>
       </c>
       <c r="O2" t="n">
-        <v>10.48309460890137</v>
+        <v>10.48321752034316</v>
       </c>
       <c r="P2" t="n">
-        <v>350.2668369335471</v>
+        <v>350.2672727473533</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17586,7 +17586,7 @@
         <v>0.0626</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1078055861292364</v>
+        <v>-0.1078317515176713</v>
       </c>
       <c r="J3" t="n">
         <v>501</v>
@@ -17595,19 +17595,19 @@
         <v>444</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007536368418676775</v>
+        <v>0.007539960111037081</v>
       </c>
       <c r="M3" t="n">
-        <v>6.471870158941683</v>
+        <v>6.471952302319176</v>
       </c>
       <c r="N3" t="n">
-        <v>73.5423053273645</v>
+        <v>73.54269307206209</v>
       </c>
       <c r="O3" t="n">
-        <v>8.575681041606229</v>
+        <v>8.575703648801193</v>
       </c>
       <c r="P3" t="n">
-        <v>351.9418321757368</v>
+        <v>351.9422179559811</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17664,7 +17664,7 @@
         <v>0.0569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06295862720030869</v>
+        <v>0.0629586272003089</v>
       </c>
       <c r="J4" t="n">
         <v>501</v>
@@ -17673,16 +17673,16 @@
         <v>446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002040012626462362</v>
+        <v>0.002040012626462251</v>
       </c>
       <c r="M4" t="n">
         <v>7.161212509432977</v>
       </c>
       <c r="N4" t="n">
-        <v>95.42286334408487</v>
+        <v>95.4228633440849</v>
       </c>
       <c r="O4" t="n">
-        <v>9.768462690929667</v>
+        <v>9.768462690929669</v>
       </c>
       <c r="P4" t="n">
         <v>358.8926239411074</v>
@@ -17766,12 +17766,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-45.369100339679115,170.86455428071721</t>
+          <t>-45.369100339980214,170.86455432326758</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-45.3697068450269,170.86465533443004</t>
+          <t>-45.36970683972876,170.86465537631395</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -17793,12 +17793,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-45.36910194525658,170.8647812019027</t>
+          <t>-45.36910194495555,170.86478115935233</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-45.369692147942345,170.86477152024344</t>
+          <t>-45.369692153240514,170.8647714783596</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -17847,12 +17847,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-45.36910100267799,170.8646479766541</t>
+          <t>-45.36910100297907,170.86464801920448</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-45.36970484233098,170.86467116653048</t>
+          <t>-45.369704837032835,170.86467120841434</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -17874,12 +17874,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-45.36910181431037,170.86476269248558</t>
+          <t>-45.36910181400934,170.8647626499352</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-45.369689922706435,170.86478911145758</t>
+          <t>-45.369689928004625,170.86478906957376</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -17901,12 +17901,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-45.36909981723484,170.86448045581133</t>
+          <t>-45.369099816933684,170.86448041326096</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-45.36972692484487,170.8644965945296</t>
+          <t>-45.36972693014295,170.86449655264573</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -17928,12 +17928,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-45.36910156144023,170.8647269501634</t>
+          <t>-45.3691015611392,170.86472690761303</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-45.3696950089559,170.8647489029662</t>
+          <t>-45.36969501425408,170.86474886108235</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -17955,12 +17955,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-45.36910087953824,170.86463057354828</t>
+          <t>-45.369100879237166,170.86463053099789</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-45.3697008581251,170.8647026631928</t>
+          <t>-45.36970086342325,170.86470262130894</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -18009,12 +18009,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-45.36910220744101,170.86481826328796</t>
+          <t>-45.36910220774202,170.86481830583836</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-45.369687088175795,170.86481151931187</t>
+          <t>-45.36968708287759,170.8648115611957</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -18117,12 +18117,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-45.36910080667679,170.86462027635616</t>
+          <t>-45.36910080697787,170.86462031890653</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-45.36970765564127,170.86464892619864</t>
+          <t>-45.36970765034315,170.8646489680825</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -18198,12 +18198,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-45.369100761514275,170.8646138937991</t>
+          <t>-45.369100761815346,170.86461393634949</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-45.36970741722533,170.86465081097262</t>
+          <t>-45.36970741192719,170.86465085285647</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -18225,12 +18225,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-45.36910109721381,170.86466133747388</t>
+          <t>-45.369101096912736,170.86466129492345</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-45.36970662780337,170.86465705166853</t>
+          <t>-45.36970663310151,170.86465700978465</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -18252,12 +18252,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-45.36910094667833,170.86464006228323</t>
+          <t>-45.369100946979415,170.8646401048336</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-45.369700105787366,170.86470861070038</t>
+          <t>-45.369700100489226,170.86470865258426</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -18279,12 +18279,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-45.36910037219856,170.86455887615816</t>
+          <t>-45.36910037249966,170.86455891870852</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-45.369707178809335,170.86465269574654</t>
+          <t>-45.3697071735112,170.86465273763042</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -18306,12 +18306,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-45.36910132842858,170.86469401616716</t>
+          <t>-45.36910132812752,170.8646939736168</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-45.36969809248768,170.86472452656503</t>
+          <t>-45.36969809778583,170.86472448468118</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -18333,12 +18333,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-45.369101904919454,170.8647755001512</t>
+          <t>-45.36910190522047,170.86477554270158</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-45.36968354368169,170.8648395395977</t>
+          <t>-45.369683538383484,170.86483958148156</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -18360,12 +18360,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-45.36910089519429,170.86463278616807</t>
+          <t>-45.369100895495365,170.86463282871847</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-45.369705605263015,170.86466513525426</t>
+          <t>-45.36970559996488,170.86466517713814</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -18387,12 +18387,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-45.36910044596885,170.86456930100104</t>
+          <t>-45.36910044566774,170.86456925845067</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-45.369701112436374,170.86470065276768</t>
+          <t>-45.36970111773453,170.8647006108838</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -18414,12 +18414,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-45.369100619701626,170.86459385257004</t>
+          <t>-45.36910062000273,170.86459389512044</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-45.36970832320579,170.86464364883145</t>
+          <t>-45.369708317907644,170.86464369071533</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -18441,12 +18441,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-45.36909973442227,170.86446875445768</t>
+          <t>-45.36909973472343,170.86446879700804</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-45.369710325897856,170.86462781672924</t>
+          <t>-45.369710320599744,170.8646278586131</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -18468,12 +18468,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-45.36910137840346,170.86470107953065</t>
+          <t>-45.36910137870449,170.86470112208104</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-45.36969929516961,170.86471501893024</t>
+          <t>-45.36969928987144,170.8647150608141</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -18495,12 +18495,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-45.36910162947546,170.86473656655</t>
+          <t>-45.36910162977648,170.8647366091004</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-45.36969935874749,170.86471451632397</t>
+          <t>-45.36969935344933,170.86471455820782</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -18549,12 +18549,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-45.36910229142177,170.8648301348455</t>
+          <t>-45.369102291722776,170.8648301773959</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-45.36968545103364,170.86482446141738</t>
+          <t>-45.369685445735435,170.86482450330124</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -18576,12 +18576,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-45.36910228871273,170.86482975189202</t>
+          <t>-45.36910228901373,170.86482979444241</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-45.36968360726012,170.86483903699173</t>
+          <t>-45.369683601961924,170.86483907887555</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -18603,7 +18603,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-45.36910575071715,170.86531929414707</t>
+          <t>-45.36910575101796,170.86531933669747</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -18622,12 +18622,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-45.36910039990017,170.86456279079303</t>
+          <t>-45.369100399599056,170.86456274824263</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-45.36972198173359,170.86453567219817</t>
+          <t>-45.369721987031674,170.8645356303143</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -18668,7 +18668,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-45.36909880834572,170.86433791205377</t>
+          <t>-45.369098808646896,170.86433795460417</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -18733,12 +18733,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-45.36909984433686,170.86448428534527</t>
+          <t>-45.36909984403572,170.8644842427949</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-45.36971657767362,170.86457839375785</t>
+          <t>-45.369716582971726,170.86457835187397</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -18760,12 +18760,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-45.36910178480944,170.86475852254796</t>
+          <t>-45.369101785110466,170.86475856509833</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-45.369680221705586,170.86486580075953</t>
+          <t>-45.36968021640735,170.86486584264335</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -18787,12 +18787,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-45.36910200515971,170.86478966942926</t>
+          <t>-45.36910200546072,170.86478971197963</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-45.36973618585731,170.86442338147432</t>
+          <t>-45.36973618055928,170.86442342335823</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -18814,12 +18814,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-45.36910109299887,170.86466074176852</t>
+          <t>-45.369101093299946,170.8646607843189</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-45.369699978631665,170.86470961591291</t>
+          <t>-45.36969997333351,170.86470965779677</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -18841,12 +18841,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-45.36910087502206,170.86462993529258</t>
+          <t>-45.369100874720985,170.8646298927422</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-45.36969532684602,170.86474638993525</t>
+          <t>-45.36969533214418,170.86474634805143</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -18895,12 +18895,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-45.36910162766921,170.86473631124773</t>
+          <t>-45.36910162797025,170.8647363537981</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-45.36969246053478,170.86476904909657</t>
+          <t>-45.36969245523661,170.86476909098042</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -18949,12 +18949,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-45.36910149039376,170.864716908273</t>
+          <t>-45.36910149069481,170.86471695082338</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-45.36969981968702,170.8647108724286</t>
+          <t>-45.36969981438887,170.86471091431244</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -19003,12 +19003,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-45.36910056430042,170.86458602330018</t>
+          <t>-45.36910056399932,170.8645859807498</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-45.36971316039208,170.86460540885787</t>
+          <t>-45.36971316569021,170.864605366974</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -19030,12 +19030,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-45.36910043332257,170.8645675138851</t>
+          <t>-45.36910043302148,170.8645674713347</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-45.36971618031564,170.86458153504873</t>
+          <t>-45.36971618561374,170.86458149316482</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -19057,12 +19057,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-45.36910199402199,170.864788095065</t>
+          <t>-45.36910199372097,170.86478805251463</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-45.369690622066585,170.86478358279044</t>
+          <t>-45.36969062736476,170.86478354090656</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -19084,12 +19084,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-45.36910062512129,170.8645946184769</t>
+          <t>-45.3691006254224,170.86459466102727</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-45.36970374561562,170.8646798364898</t>
+          <t>-45.36970374031746,170.86467987837366</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -19165,12 +19165,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-45.369100951194454,170.86464070053893</t>
+          <t>-45.36910095149553,170.8646407430893</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-45.36970067798792,170.86470408724395</t>
+          <t>-45.36970067268978,170.86470412912777</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-45.36910356452722,170.86501012298598</t>
+          <t>-45.36910356482815,170.86501016553638</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -19253,12 +19253,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-45.36910068262954,170.86460274559948</t>
+          <t>-45.369100682328465,170.86460270304912</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-45.36969397581263,170.86475707031656</t>
+          <t>-45.369693981110814,170.86475702843273</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -19280,12 +19280,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-45.369101240218846,170.8646815489052</t>
+          <t>-45.369101240519896,170.8646815914556</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-45.369688725316465,170.86479857720565</t>
+          <t>-45.36968872001828,170.86479861908947</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -19334,12 +19334,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-45.369101339266535,170.86469554798094</t>
+          <t>-45.36910133896548,170.86469550543055</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-45.36969817196007,170.86472389830723</t>
+          <t>-45.36969817725823,170.86472385642338</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -19361,12 +19361,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-45.369102003353596,170.86478941412693</t>
+          <t>-45.36910200365462,170.8647894566773</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-45.369686261657606,170.86481805319048</t>
+          <t>-45.36968625635942,170.8648180950743</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -19415,12 +19415,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-45.369100557977426,170.8645851297422</t>
+          <t>-45.369100557676326,170.8645850871918</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-45.36970912322325,170.86463732436746</t>
+          <t>-45.36970912852139,170.86463728248359</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -19442,12 +19442,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-45.36910120198416,170.86467614500668</t>
+          <t>-45.3691012016831,170.86467610245631</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-45.369705181411916,170.8646684859633</t>
+          <t>-45.369705186710064,170.86466844407946</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -19492,12 +19492,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-45.36910109450421,170.86466095452042</t>
+          <t>-45.36910109420314,170.86466091197005</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-45.36970278135323,170.86468745935233</t>
+          <t>-45.369702786651395,170.86468741746847</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -19519,12 +19519,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-45.369100897000756,170.86463304147037</t>
+          <t>-45.36910089730185,170.86463308402074</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-45.36969819845087,170.86472368888798</t>
+          <t>-45.36969819315271,170.86472373077183</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -19546,12 +19546,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-45.36909894538439,170.8643572724739</t>
+          <t>-45.3690989450832,170.86435722992354</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-45.3697330123235,170.86444846993226</t>
+          <t>-45.36973301762156,170.86444842804838</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -19573,12 +19573,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-45.36910051190965,170.86457861953414</t>
+          <t>-45.36910051160854,170.86457857698375</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-45.369704958890054,170.86467024508553</t>
+          <t>-45.369704964188195,170.86467020320168</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -19600,12 +19600,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-45.36910087622637,170.8646301054941</t>
+          <t>-45.36910087652745,170.86463014804448</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-45.36970678144928,170.86465583703645</t>
+          <t>-45.36970677615115,170.8646558789203</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -19627,12 +19627,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-45.369101545484966,170.8647246949931</t>
+          <t>-45.36910154578601,170.86472473754347</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-45.369698977280194,170.8647175319615</t>
+          <t>-45.369698971982025,170.86471757384535</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -19681,12 +19681,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-45.369102089143446,170.86480154098658</t>
+          <t>-45.36910208944445,170.864801583537</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-45.3696861662901,170.8648188070995</t>
+          <t>-45.36968616099191,170.86481884898336</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -19708,12 +19708,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-45.36910102345192,170.86465091263042</t>
+          <t>-45.36910102375299,170.8646509551808</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-45.369714808105385,170.8645923829728</t>
+          <t>-45.36971480280727,170.86459242485668</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -19789,12 +19789,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-45.36910214754,170.8648097957613</t>
+          <t>-45.36910214723899,170.86480975321092</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-45.36968647358539,170.864816377837</t>
+          <t>-45.36968647888358,170.86481633595315</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -19816,12 +19816,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-45.36910149280213,170.86471724867607</t>
+          <t>-45.36910149250109,170.86471720612568</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-45.36970238399222,170.86469060064178</t>
+          <t>-45.36970238929037,170.86469055875793</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -19843,12 +19843,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-45.36910125527179,170.86468367642428</t>
+          <t>-45.36910125497074,170.8646836338739</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-45.36969723418555,170.8647313117491</t>
+          <t>-45.3696972394837,170.86473126986527</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -19889,12 +19889,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-45.36910028879183,170.8645470897032</t>
+          <t>-45.369100288490706,170.86454704715283</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-45.369713049131654,170.86460628841922</t>
+          <t>-45.36971305442976,170.86460624653532</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -19912,12 +19912,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-45.3691005173294,170.86457938544095</t>
+          <t>-45.3691005170283,170.86457934289058</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-45.36969807659319,170.86472465221658</t>
+          <t>-45.36969808189136,170.86472461033273</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -19939,12 +19939,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-45.36910087502206,170.86462993529258</t>
+          <t>-45.369100874720985,170.8646298927422</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-45.36970720000187,170.86465252821108</t>
+          <t>-45.369707205299996,170.86465248632723</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -19966,12 +19966,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-45.36910200877193,170.86479018003385</t>
+          <t>-45.36910200907296,170.86479022258425</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-45.36969087108112,170.8647816142498</t>
+          <t>-45.369690865782935,170.86478165613366</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -20047,12 +20047,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-45.369101932613624,170.86477941478657</t>
+          <t>-45.36910193231261,170.8647793722362</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-45.36969334003187,170.86476209637817</t>
+          <t>-45.369693345330056,170.86476205449432</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -20128,12 +20128,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-45.36910065011187,170.86459815015843</t>
+          <t>-45.369100649810775,170.86459810760806</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-45.36969783817598,170.86472653698996</t>
+          <t>-45.36969784347414,170.8647264951061</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -20155,12 +20155,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-45.36910085695731,170.86462738226973</t>
+          <t>-45.36910085665623,170.86462733971936</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-45.36970972720971,170.86463254960645</t>
+          <t>-45.36970973250784,170.86463250772258</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -20201,12 +20201,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-45.36910162646506,170.8647361410462</t>
+          <t>-45.369101626164024,170.86473609849577</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-45.369697281869016,170.86473093479444</t>
+          <t>-45.36969728716717,170.8647308929106</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -20228,7 +20228,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-45.36910099274261,170.86464657249152</t>
+          <t>-45.36910099304368,170.86464661504192</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-45.369099810007604,170.8644794346023</t>
+          <t>-45.36909980970647,170.86447939205192</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -20270,12 +20270,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-45.36910041465423,170.8645648757616</t>
+          <t>-45.369100414955334,170.86456491831197</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-45.369701854177386,170.86469478902762</t>
+          <t>-45.36970184887924,170.86469483091147</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -20297,7 +20297,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-45.369100444463335,170.86456908824914</t>
+          <t>-45.369100444764435,170.86456913079954</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -20316,12 +20316,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-45.36910005934174,170.86451466631488</t>
+          <t>-45.369100059040626,170.8645146237645</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-45.369712842505095,170.86460792189027</t>
+          <t>-45.36971284780323,170.86460788000642</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -20343,12 +20343,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-45.36910187240872,170.8647709047097</t>
+          <t>-45.36910187270974,170.8647709472601</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-45.3696911253938,170.86477960382533</t>
+          <t>-45.369691120095624,170.86477964570918</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -20370,12 +20370,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-45.36910113635238,170.86466686902344</t>
+          <t>-45.36910113665345,170.86466691157386</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-45.36970226743296,170.86469152208664</t>
+          <t>-45.36970226213483,170.86469156397052</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -20424,12 +20424,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-45.369100682930636,170.86460278814985</t>
+          <t>-45.36910068323172,170.86460283070022</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-45.36970479464772,170.86467154348526</t>
+          <t>-45.369704789349576,170.8646715853691</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -20447,12 +20447,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-45.36910102315085,170.86465087008003</t>
+          <t>-45.3691010228498,170.86465082752963</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-45.36970715231867,170.86465290516585</t>
+          <t>-45.369707157616794,170.864652863282</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -20474,12 +20474,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-45.36910091506538,170.86463559449322</t>
+          <t>-45.36910091536645,170.8646356370436</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-45.36970504895844,170.86466953305987</t>
+          <t>-45.3697050436603,170.86466957494372</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -20609,12 +20609,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-45.36910173935361,170.86475209744</t>
+          <t>-45.36910173905257,170.86475205488964</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-45.369698203749024,170.86472364700413</t>
+          <t>-45.36969820904719,170.86472360512025</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -20637,7 +20637,7 @@
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-45.36972294598572,170.86452804933086</t>
+          <t>-45.36972294068763,170.86452809121474</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -20682,12 +20682,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-45.369101803774335,170.86476120322214</t>
+          <t>-45.36910180407537,170.86476124577254</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-45.36969354136247,170.86476050479203</t>
+          <t>-45.369693536064304,170.86476054667585</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -20736,12 +20736,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-45.36910045138866,170.86457006690787</t>
+          <t>-45.36910045108757,170.86457002435748</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-45.36971711808035,170.86457412160223</t>
+          <t>-45.36971712337844,170.86457407971835</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -20763,12 +20763,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-45.36910143891462,170.86470963215757</t>
+          <t>-45.36910143921566,170.86470967470794</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-45.36969381156929,170.86475836871583</t>
+          <t>-45.36969380627112,170.86475841059965</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -20790,7 +20790,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-45.36910065914456,170.86459942666983</t>
+          <t>-45.369100658843486,170.86459938411946</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -20809,12 +20809,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-45.36910100779621,170.86464870001058</t>
+          <t>-45.36910100749514,170.8646486574602</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-45.36968912797867,170.86479539403376</t>
+          <t>-45.36968913327685,170.86479535214994</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -20832,12 +20832,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-45.369100555568664,170.86458478933918</t>
+          <t>-45.36910055586974,170.86458483188954</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-45.36970260121626,170.86468888340357</t>
+          <t>-45.369702595918106,170.86468892528742</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -20859,12 +20859,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-45.36910020478163,170.86453521814755</t>
+          <t>-45.36910020448053,170.86453517559718</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-45.36971652999068,170.86457877071277</t>
+          <t>-45.369716535288774,170.8645787288289</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -20886,7 +20886,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-45.369100999667275,170.86464755115028</t>
+          <t>-45.36910099936621,170.86464750859992</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -20905,12 +20905,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-45.36910172219469,170.86474967206814</t>
+          <t>-45.369101721893664,170.86474962951775</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-45.36969330824282,170.86476234768125</t>
+          <t>-45.369693313541006,170.86476230579743</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -20932,12 +20932,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-45.36910001357108,170.86450819865743</t>
+          <t>-45.3691000138722,170.86450824120783</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-45.36971731940831,170.86457253001484</t>
+          <t>-45.369717314110204,170.86457257189872</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -20986,12 +20986,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-45.369100392673666,170.8645617695839</t>
+          <t>-45.369100392372566,170.86456172703353</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-45.36971352596205,170.86460251887056</t>
+          <t>-45.36971353126017,170.8646024769867</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -21013,12 +21013,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-45.3691014253674,170.86470771739033</t>
+          <t>-45.36910142566843,170.8647077599407</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-45.369698357395656,170.86472243237236</t>
+          <t>-45.3696983520975,170.86472247425624</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -21040,12 +21040,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-45.36910188053642,170.86477205357008</t>
+          <t>-45.369101880837434,170.86477209612048</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-45.369687167648664,170.8648108910543</t>
+          <t>-45.36968716235048,170.86481093293813</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -21091,7 +21091,7 @@
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-45.36970610328792,170.8646611981711</t>
+          <t>-45.36970610858606,170.86466115628724</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -21140,12 +21140,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-45.369102147841026,170.8648098383117</t>
+          <t>-45.36910214814202,170.86480988086205</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-45.369677408352615,170.8648880410714</t>
+          <t>-45.3696774030544,170.8648880829552</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -21194,12 +21194,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-45.36910153825992,170.8647236737839</t>
+          <t>-45.369101538560976,170.86472371633428</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-45.369694622189506,170.86475196048713</t>
+          <t>-45.36969461689135,170.86475200237098</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -21222,7 +21222,7 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-45.36968802595558,170.86480410587245</t>
+          <t>-45.36968802065739,170.8648041477563</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -21244,12 +21244,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-45.369101480158186,170.86471546156</t>
+          <t>-45.369101479857136,170.8647154190096</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-45.36969017701925,170.8647871010332</t>
+          <t>-45.36969018231743,170.86478705914934</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -21298,12 +21298,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-45.36910152561607,170.8647218866678</t>
+          <t>-45.36910152591712,170.86472192921818</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-45.36970260121626,170.86468888340357</t>
+          <t>-45.369702595918106,170.86468892528742</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -21325,12 +21325,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-45.36909962962503,170.86445394692657</t>
+          <t>-45.36909962992619,170.86445398947694</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-45.36972520296948,170.8645102067943</t>
+          <t>-45.36972519767139,170.8645102486782</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -21379,12 +21379,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-45.36910131518214,170.86469214395035</t>
+          <t>-45.369101315483206,170.86469218650075</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-45.36970320520489,170.86468410864356</t>
+          <t>-45.369703199906745,170.8646841505274</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -21406,12 +21406,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-45.36910211593368,170.86480532797086</t>
+          <t>-45.369102115632685,170.8648052854205</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-45.36968286551162,170.8648449007283</t>
+          <t>-45.36968287080983,170.86484485884444</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -21433,12 +21433,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-45.369100483907474,170.86457466234884</t>
+          <t>-45.36910048360638,170.86457461979845</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-45.369707851672146,170.86464737649558</t>
+          <t>-45.36970785697029,170.8646473346117</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -21483,12 +21483,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-45.36910109932127,170.8646616353265</t>
+          <t>-45.36910109962234,170.8646616778769</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-45.36972043469062,170.8645479022925</t>
+          <t>-45.36972042939252,170.8645479441764</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -21510,12 +21510,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-45.36910161773492,170.86473490708505</t>
+          <t>-45.369101618035955,170.86473494963545</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-45.36968858226539,170.8647997080693</t>
+          <t>-45.369688576967214,170.86479974995314</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -21533,7 +21533,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-45.36910155602148,170.8647261842565</t>
+          <t>-45.369101555720434,170.86472614170611</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -21552,12 +21552,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-45.36910180287125,170.864761075571</t>
+          <t>-45.369101803172285,170.86476111812138</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-45.36969675205269,170.86473512317957</t>
+          <t>-45.36969674675452,170.86473516506345</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -21579,12 +21579,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-45.36910138472553,170.8647019730887</t>
+          <t>-45.36910138502659,170.86470201563907</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-45.369702172066305,170.86469227599613</t>
+          <t>-45.369702166768164,170.86469231787996</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -21633,12 +21633,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-45.36909990245521,170.8644924975681</t>
+          <t>-45.36909990275636,170.86449254011848</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-45.36971851148125,170.8645631061418</t>
+          <t>-45.36971850618315,170.86456314802567</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -21679,12 +21679,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-45.369100999667275,170.86464755115028</t>
+          <t>-45.36910099936621,170.86464750859992</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-45.3697064529649,170.86465843383607</t>
+          <t>-45.369706458263046,170.86465839195216</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -21706,12 +21706,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-45.36910061879837,170.86459372491893</t>
+          <t>-45.369100619099456,170.8645937674693</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-45.36970552579095,170.86466576351222</t>
+          <t>-45.36970552049281,170.86466580539607</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -21841,12 +21841,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-45.36910045861508,170.86457108811695</t>
+          <t>-45.36910045831398,170.86457104556658</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-45.36971344649033,170.8646031471287</t>
+          <t>-45.36971345178844,170.8646031052448</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -21864,12 +21864,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-45.36910045680848,170.8645708328147</t>
+          <t>-45.369100456507375,170.8645707902643</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-45.36970905964573,170.86463782697388</t>
+          <t>-45.369709064943855,170.86463778509</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -21891,12 +21891,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-45.36910034148575,170.86455453601948</t>
+          <t>-45.36910034178686,170.86455457856988</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-45.36973602691587,170.86442463799148</t>
+          <t>-45.36973602161782,170.86442467987538</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -21918,12 +21918,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-45.36909985788783,170.86448620011225</t>
+          <t>-45.369099857586704,170.86448615756188</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-45.369730564619154,170.86446782029373</t>
+          <t>-45.369730569917216,170.86446777840982</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -21941,12 +21941,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-45.369097666128795,170.8641765610443</t>
+          <t>-45.36909766643004,170.86417660359464</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-45.369756371309414,170.86426380374243</t>
+          <t>-45.369756366011416,170.86426384562637</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -21968,12 +21968,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-45.369099343832005,170.86441356661976</t>
+          <t>-45.36909934353084,170.8644135240694</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-45.36971894592542,170.86455967166353</t>
+          <t>-45.36971895122351,170.86455962977965</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -21995,12 +21995,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-45.36910093915146,170.8646389985237</t>
+          <t>-45.36910093885038,170.8646389559733</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-45.36971759490967,170.86457035205308</t>
+          <t>-45.369717600207785,170.8645703101692</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -22022,12 +22022,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-45.36910184772452,170.86476741557823</t>
+          <t>-45.369101847423494,170.86476737302783</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-45.369694675171225,170.86475154164864</t>
+          <t>-45.36969468046939,170.8647514997648</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -22049,12 +22049,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-45.36910146119219,170.86471278088587</t>
+          <t>-45.36910146089115,170.86471273833547</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-45.36969949120139,170.8647134692276</t>
+          <t>-45.36969949649955,170.86471342734376</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -22076,12 +22076,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-45.36910086057026,170.8646278928743</t>
+          <t>-45.36910086026919,170.86462785032393</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-45.36970872586363,170.86464046565754</t>
+          <t>-45.36970873116176,170.8646404237737</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -22103,7 +22103,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-45.36910238984926,170.86484404882168</t>
+          <t>-45.36910239015025,170.86484409137205</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -22122,12 +22122,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-45.36910108667645,170.86465984821052</t>
+          <t>-45.36910108697752,170.8646598907609</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-45.369699978631665,170.86470961591291</t>
+          <t>-45.36969997333351,170.86470965779677</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -22149,12 +22149,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-45.36910059350657,170.864590150687</t>
+          <t>-45.36910059380766,170.86459019323738</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-45.369718288961025,170.86456486526478</t>
+          <t>-45.36971828366292,170.86456490714866</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -22172,12 +22172,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-45.36910099605442,170.86464704054572</t>
+          <t>-45.36910099575333,170.86464699799535</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-45.36971498824116,170.864590958921</t>
+          <t>-45.36971499353927,170.86459091703716</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -22199,12 +22199,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-45.369101367565555,170.86469954771687</t>
+          <t>-45.36910136786661,170.86469959026726</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-45.369700598515635,170.86470471550177</t>
+          <t>-45.369700593217495,170.86470475738565</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -22253,12 +22253,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-45.36910069286655,170.8646041923124</t>
+          <t>-45.369100693167645,170.86460423486278</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-45.36970848214968,170.86464239231543</t>
+          <t>-45.369708476851564,170.8646424341993</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -22280,12 +22280,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-45.36910033335586,170.86455338715925</t>
+          <t>-45.369100333656974,170.86455342970962</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-45.36970318931046,170.86468423429514</t>
+          <t>-45.36970318401231,170.86468427617902</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -22307,12 +22307,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-45.3691007163514,170.86460751124207</t>
+          <t>-45.369100716652476,170.86460755379244</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-45.36969025119381,170.8647865146594</t>
+          <t>-45.36969024589564,170.86478655654324</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -22334,12 +22334,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-45.36910027162855,170.8645446643316</t>
+          <t>-45.36910027132745,170.86454462178122</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-45.36970708874107,170.86465340777227</t>
+          <t>-45.36970709403919,170.8646533658884</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -22361,12 +22361,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-45.3691022625253,170.8648260500085</t>
+          <t>-45.36910226282632,170.86482609255887</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-45.369685482822824,170.8648242101144</t>
+          <t>-45.36968547752463,170.86482425199821</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -22415,12 +22415,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-45.3691017501908,170.8647536292538</t>
+          <t>-45.36910174988976,170.86475358670344</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-45.369695644736076,170.8647438769043</t>
+          <t>-45.36969565003424,170.86474383502045</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -22442,12 +22442,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-45.36910131939692,170.8646927396557</t>
+          <t>-45.36910131909587,170.8646926971053</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-45.36969354666064,170.86476046290815</t>
+          <t>-45.36969355195882,170.86476042102433</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -22496,12 +22496,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-45.36909990486426,170.86449283797114</t>
+          <t>-45.36909990456313,170.86449279542074</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-45.3697125881955,170.8646099323162</t>
+          <t>-45.369712593493595,170.8646098904323</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -22523,12 +22523,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-45.36910080577355,170.86462014870503</t>
+          <t>-45.369100806074634,170.8646201912554</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-45.369708847720595,170.8646395023286</t>
+          <t>-45.369708842422455,170.86463954421245</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-45.36910101983908,170.86465040202586</t>
+          <t>-45.369101020140135,170.86465044457623</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -22596,12 +22596,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-45.36910161592867,170.86473465178275</t>
+          <t>-45.36910161622973,170.86473469433315</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-45.3696960368004,170.8647407774994</t>
+          <t>-45.369696031502244,170.8647408193833</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -22623,12 +22623,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-45.36910014817193,170.86452721867644</t>
+          <t>-45.36910014847306,170.8645272612268</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-45.369715729976484,170.86458509517828</t>
+          <t>-45.36971572467838,170.8645851370622</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -22812,12 +22812,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-45.36910159876939,170.8647322264109</t>
+          <t>-45.36910159907043,170.8647322689613</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-45.3696970699425,170.8647326101485</t>
+          <t>-45.36969706464433,170.86473265203236</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -22839,12 +22839,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-45.369100738029616,170.86461057486943</t>
+          <t>-45.36910073833071,170.8646106174198</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-45.369713886233825,170.8645996707671</t>
+          <t>-45.36971388093572,170.86459971265097</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -22866,12 +22866,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-45.36910032883925,170.86455274890358</t>
+          <t>-45.36910032914036,170.86455279145395</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-45.36971429948665,170.86459640382486</t>
+          <t>-45.36971429418854,170.86459644570874</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -22947,12 +22947,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-45.36910126069084,170.86468444233117</t>
+          <t>-45.36910126038978,170.8646843997808</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-45.36969273603994,170.86476687113662</t>
+          <t>-45.36969274133812,170.86476682925277</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -22974,12 +22974,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-45.3690995046488,170.86443628852044</t>
+          <t>-45.36909950434765,170.86443624597007</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-45.36973360040783,170.86444382081922</t>
+          <t>-45.36973360570588,170.8644437789353</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -23001,12 +23001,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-45.36910015539873,170.8645282398855</t>
+          <t>-45.369100155699854,170.86452828243588</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-45.36971215374979,170.86461336679372</t>
+          <t>-45.36971214845166,170.8646134086776</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -23093,12 +23093,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-45.3690993098009,170.86440875842734</t>
+          <t>-45.369099310102065,170.8644088009777</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-45.36972520296948,170.8645102067943</t>
+          <t>-45.36972519767139,170.8645102486782</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -23166,12 +23166,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-45.3691005158239,170.86457917268905</t>
+          <t>-45.36910051612501,170.86457921523942</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-45.369702553532925,170.86468926035826</t>
+          <t>-45.369702548234784,170.86468930224214</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -23193,12 +23193,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-45.3691014991241,170.86471814223412</t>
+          <t>-45.369101498823056,170.86471809968373</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-45.3696952791625,170.8647467668899</t>
+          <t>-45.369695284460676,170.86474672500606</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -23221,7 +23221,7 @@
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-45.369678075928284,170.86488276370946</t>
+          <t>-45.36967807063006,170.86488280559325</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -23316,12 +23316,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-45.36909910892293,170.8643803773272</t>
+          <t>-45.36909910862177,170.86438033477683</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-45.3697346176343,170.86443577910995</t>
+          <t>-45.36973462293235,170.86443573722605</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -23343,12 +23343,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-45.36910192900136,170.86477890418195</t>
+          <t>-45.36910192870034,170.86477886163158</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-45.3696837715044,170.8648377385929</t>
+          <t>-45.36968377680259,170.8648376967091</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -23370,7 +23370,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-45.369098764974545,170.86433178479996</t>
+          <t>-45.36909876527575,170.86433182735036</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -23390,7 +23390,7 @@
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-45.36969976140732,170.864711333151</t>
+          <t>-45.369699766705466,170.86471129126716</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -23412,7 +23412,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-45.369101202887336,170.86467627265785</t>
+          <t>-45.369101202586286,170.86467623010745</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -23431,12 +23431,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-45.36910084009682,170.8646249994484</t>
+          <t>-45.369100840397905,170.8646250419988</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-45.36970357077686,170.8646812186572</t>
+          <t>-45.36970356547871,170.8646812605411</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -23504,12 +23504,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-45.36910107282733,170.86465789089297</t>
+          <t>-45.36910107252626,170.86465784834257</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-45.36970335355295,170.8646829358955</t>
+          <t>-45.369703358851105,170.86468289401162</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -23558,12 +23558,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-45.36910075940668,170.86461359594645</t>
+          <t>-45.3691007591056,170.86461355339605</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-45.36970669138099,170.86465654906212</t>
+          <t>-45.369706696679124,170.86465650717827</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -23627,12 +23627,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-45.36910145607438,170.86471205752937</t>
+          <t>-45.36910145637544,170.86471210007974</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-45.36970047135997,170.86470572071434</t>
+          <t>-45.369700466061815,170.8647057625982</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -23654,12 +23654,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-45.36910167162073,170.86474252360367</t>
+          <t>-45.369101671319704,170.8647424810533</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-45.36969543810755,170.86474551037443</t>
+          <t>-45.36969544340571,170.86474546849058</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -23681,12 +23681,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-45.369102005761754,170.86478975453</t>
+          <t>-45.36910200546072,170.86478971197963</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-45.36969402349619,170.86475669336193</t>
+          <t>-45.36969402879435,170.86475665147807</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -23735,12 +23735,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-45.36910056279495,170.86458581054828</t>
+          <t>-45.36910056309604,170.86458585309865</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-45.36971455379604,170.86459439339885</t>
+          <t>-45.36971454849792,170.86459443528273</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -23762,12 +23762,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-45.36910124654108,170.86468244246322</t>
+          <t>-45.369101246842135,170.8646824850136</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-45.36969889780782,170.8647181602193</t>
+          <t>-45.36969889250966,170.86471820210315</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -23843,12 +23843,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-45.36910158612567,170.86473043929482</t>
+          <t>-45.369101586426716,170.86473048184519</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-45.36971139082051,170.86461939807126</t>
+          <t>-45.36971138552238,170.8646194399551</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -23870,12 +23870,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-45.369101531636936,170.86472273767546</t>
+          <t>-45.369101531335915,170.8647226951251</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-45.369697027557194,170.86473294521932</t>
+          <t>-45.36969703285535,170.86473290333547</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -23897,12 +23897,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-45.36910214603495,170.8648095830094</t>
+          <t>-45.36910214633596,170.86480962555976</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-45.369685228509354,170.86482622053848</t>
+          <t>-45.36968522321115,170.8648262624223</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-45.36910122817644,170.8646798468899</t>
+          <t>-45.36910122787539,170.86467980433954</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-45.36969877595019,170.86471912354796</t>
+          <t>-45.369698781248346,170.86471908166408</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -23951,12 +23951,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-45.3690994380941,170.86442688488737</t>
+          <t>-45.369099438395246,170.86442692743773</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-45.36972521886373,170.8645100811426</t>
+          <t>-45.369725213565644,170.86451012302652</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -24024,12 +24024,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-45.36910140158442,170.8647043559101</t>
+          <t>-45.36910140128337,170.86470431335974</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-45.36968704579025,170.86481185438257</t>
+          <t>-45.36968705108845,170.86481181249871</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -24078,12 +24078,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-45.369100951194454,170.86464070053893</t>
+          <t>-45.36910095149553,170.8646407430893</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-45.3697051920082,170.86466840219555</t>
+          <t>-45.369705186710064,170.86466844407946</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -24105,12 +24105,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-45.36910149822096,170.86471801458296</t>
+          <t>-45.36910149791991,170.8647179720326</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-45.36970047665812,170.8647056788305</t>
+          <t>-45.36970048195627,170.8647056369466</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -24132,12 +24132,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-45.36910011294115,170.86452224028218</t>
+          <t>-45.36910011324227,170.86452228283255</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-45.36971081862334,170.8646239215293</t>
+          <t>-45.36971081332522,170.86462396341315</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -24186,12 +24186,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-45.36910121041388,170.86467733641737</t>
+          <t>-45.36910121071494,170.86467737896774</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-45.369702442271844,170.86469013991933</t>
+          <t>-45.3697024369737,170.86469018180318</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -24213,12 +24213,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-45.369100715147056,170.86460734104054</t>
+          <t>-45.369100714845956,170.86460729849014</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-45.36970611918233,170.86466107251948</t>
+          <t>-45.36970612448048,170.86466103063563</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -24240,12 +24240,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-45.369100871409124,170.86462942468802</t>
+          <t>-45.36910087110804,170.86462938213762</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-45.36970511783425,170.86466898856963</t>
+          <t>-45.36970512313239,170.86466894668578</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -24267,12 +24267,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-45.36910362862645,170.86501918621906</t>
+          <t>-45.36910362892737,170.86501922876946</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-45.369724821507646,170.86451322243437</t>
+          <t>-45.36972481620955,170.86451326431825</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -24294,12 +24294,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-45.36910141422855,170.86470614302618</t>
+          <t>-45.369101413927496,170.8647061004758</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-45.36969529505701,170.86474664123836</t>
+          <t>-45.36969530035517,170.8647465993545</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -24340,12 +24340,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-45.36910141723905,170.86470656852998</t>
+          <t>-45.3691014175401,170.8647066110804</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-45.36969616395639,170.864739772287</t>
+          <t>-45.36969615865823,170.86473981417086</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -24394,12 +24394,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-45.36910150905861,170.86471954639674</t>
+          <t>-45.36910150875755,170.86471950384637</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-45.369689716077254,170.86479074492743</t>
+          <t>-45.369689721375444,170.86479070304355</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -24444,12 +24444,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-45.369100145160765,170.86452679317264</t>
+          <t>-45.36910014485965,170.86452675062228</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-45.36969910973412,170.86471648486514</t>
+          <t>-45.36969911503228,170.86471644298126</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -24471,12 +24471,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-45.36910093644178,170.86463861557024</t>
+          <t>-45.3691009361407,170.86463857301987</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-45.369695517580055,170.8647448821167</t>
+          <t>-45.369695522878224,170.86474484023285</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -24498,12 +24498,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-45.36910093734502,170.8646387432214</t>
+          <t>-45.369100937043925,170.86463870067104</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-45.36970011108553,170.86470856881652</t>
+          <t>-45.369700116383676,170.86470852693267</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -24525,12 +24525,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-45.369101346491824,170.8646965691901</t>
+          <t>-45.36910134619077,170.86469652663973</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-45.369696868612294,170.86473420173485</t>
+          <t>-45.369696873910456,170.86473415985103</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
@@ -24548,12 +24548,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-45.369101620444276,170.8647352900385</t>
+          <t>-45.369101620745305,170.8647353325889</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-45.36969025119381,170.8647865146594</t>
+          <t>-45.36969024589564,170.86478655654324</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -24575,12 +24575,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-45.36910188776103,170.8647730747793</t>
+          <t>-45.369101888062055,170.8647731173297</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-45.369697419621225,170.8647298458143</t>
+          <t>-45.369697414323056,170.86472988769813</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -24675,12 +24675,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-45.369100557074134,170.86458500209108</t>
+          <t>-45.36910055677304,170.8645849595407</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-45.36970451384626,170.86467376332993</t>
+          <t>-45.36970451914439,170.86467372144608</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -24729,12 +24729,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-45.36910113996516,170.86466737962803</t>
+          <t>-45.369101140266224,170.86466742217843</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-45.3697051920082,170.86466840219555</t>
+          <t>-45.369705186710064,170.86466844407946</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -24756,12 +24756,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-45.36910009095942,170.86451913410457</t>
+          <t>-45.369100090658314,170.8645190915542</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-45.36971789690151,170.86456796467192</t>
+          <t>-45.36971790219962,170.86456792278804</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -24810,12 +24810,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-45.3691002562719,170.8645424942623</t>
+          <t>-45.369100255970785,170.8645424517119</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-45.36970681853622,170.86465554384938</t>
+          <t>-45.36970682383436,170.8646555019655</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -24837,12 +24837,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-45.36909918873287,170.86439165317654</t>
+          <t>-45.369099189034046,170.8643916957269</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-45.36972696722947,170.86449625945846</t>
+          <t>-45.369726961931406,170.86449630134237</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -24864,12 +24864,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-45.36910166560001,170.864741672596</t>
+          <t>-45.36910166590105,170.8647417151464</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-45.36969239695666,170.86476955170272</t>
+          <t>-45.36969239165849,170.86476959358657</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -24891,12 +24891,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-45.36909974978033,170.8644709245269</t>
+          <t>-45.369099750081475,170.86447096707727</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-45.3697174465628,170.8645715248017</t>
+          <t>-45.36971744126468,170.8645715666856</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -24918,12 +24918,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-45.36910065553148,170.86459891606526</t>
+          <t>-45.3691006552304,170.8645988735149</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-45.36970419595775,170.86467627636162</t>
+          <t>-45.369704201255885,170.86467623447777</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -24945,12 +24945,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-45.36909971725735,170.8644663290862</t>
+          <t>-45.369099717558484,170.86446637163658</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-45.369722485052066,170.864531693229</t>
+          <t>-45.36972247975399,170.86453173511288</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -25026,12 +25026,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-45.36910074977196,170.86461223433426</t>
+          <t>-45.369100750073045,170.86461227688463</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-45.36970988085537,170.86463133497423</t>
+          <t>-45.369709875557234,170.8646313768581</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -25072,12 +25072,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-45.369101620444276,170.8647352900385</t>
+          <t>-45.369101620745305,170.8647353325889</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-45.369701901860736,170.86469441207288</t>
+          <t>-45.36970189656259,170.86469445395676</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -25145,12 +25145,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-45.36910052365245,170.86458027899891</t>
+          <t>-45.36910052335135,170.86458023644855</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-45.36970335355295,170.8646829358955</t>
+          <t>-45.369703358851105,170.86468289401162</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
@@ -25168,12 +25168,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-45.369099268842845,170.8644029715763</t>
+          <t>-45.369099268541696,170.86440292902594</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-45.36971726112917,170.86457299073749</t>
+          <t>-45.369717266427266,170.86457294885363</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -25195,12 +25195,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-45.3691014217548,170.86470720678574</t>
+          <t>-45.36910142205585,170.8647072493361</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-45.369698134872955,170.86472419149422</t>
+          <t>-45.36969812957479,170.86472423337807</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -25272,12 +25272,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-45.36910200877193,170.86479018003385</t>
+          <t>-45.36910200907296,170.86479022258425</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-45.36971751014002,170.86457102219515</t>
+          <t>-45.36971750484194,170.86457106407903</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -25326,12 +25326,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-45.36910170533675,170.86474728924665</t>
+          <t>-45.369101705637796,170.86474733179705</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-45.36970322109933,170.86468398299198</t>
+          <t>-45.36970321580119,170.86468402487583</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -25399,12 +25399,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-45.369101752298015,170.8647539271065</t>
+          <t>-45.36910175259905,170.8647539696569</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-45.369698150767434,170.86472406584267</t>
+          <t>-45.36969814546927,170.8647241077265</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -25426,12 +25426,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-45.369100368585286,170.8645583655536</t>
+          <t>-45.36910036888641,170.86455840810396</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-45.36971156565849,170.8646180159035</t>
+          <t>-45.369711560360365,170.86461805778737</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -25454,7 +25454,7 @@
       <c r="B299" t="inlineStr"/>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-45.36971473393182,170.86459296934706</t>
+          <t>-45.36971473922994,170.8645929274632</t>
         </is>
       </c>
       <c r="D299" t="inlineStr"/>
@@ -25553,12 +25553,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-45.369101523809796,170.8647216313655</t>
+          <t>-45.369101524110846,170.8647216739159</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-45.369701568077325,170.86469705075592</t>
+          <t>-45.36970156277918,170.8646970926398</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -25580,12 +25580,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-45.369100127093716,170.86452424014996</t>
+          <t>-45.369100126792596,170.86452419759956</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-45.36971241335758,170.864611314484</t>
+          <t>-45.369712418655716,170.8646112726001</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -25634,12 +25634,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-45.36910128417335,170.86468776126097</t>
+          <t>-45.36910128387229,170.8646877187106</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-45.36969895078939,170.86471774138076</t>
+          <t>-45.36969895608756,170.8647176994969</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -25661,12 +25661,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-45.369101324815915,170.8646935055626</t>
+          <t>-45.36910132451486,170.8646934630122</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-45.369696995768216,170.86473319652242</t>
+          <t>-45.36969700106638,170.86473315463857</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -25734,12 +25734,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-45.36910195789951,170.86478298901886</t>
+          <t>-45.36910195759849,170.8647829464685</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-45.369692720145416,170.86476699678815</t>
+          <t>-45.36969272544359,170.86476695490433</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -25761,12 +25761,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-45.369101396466554,170.8647036325536</t>
+          <t>-45.3691013967676,170.86470367510398</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-45.36970083693249,170.86470283072825</t>
+          <t>-45.36970083163435,170.8647028726121</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -25788,12 +25788,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-45.36910187572,170.86477137276393</t>
+          <t>-45.36910187541897,170.86477133021356</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>-45.36969434138646,170.86475418033106</t>
+          <t>-45.369694346684646,170.86475413844724</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -25842,12 +25842,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-45.369101819728904,170.8647634583925</t>
+          <t>-45.36910181942786,170.8647634158421</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-45.36969270425089,170.8647671224397</t>
+          <t>-45.36969270954907,170.86476708055585</t>
         </is>
       </c>
       <c r="D314" t="inlineStr"/>
@@ -25865,12 +25865,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-45.36910224416394,170.86482345443497</t>
+          <t>-45.36910224386292,170.8648234118846</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-45.36968599674786,170.8648201473823</t>
+          <t>-45.36968600204605,170.86482010549844</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -25892,12 +25892,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-45.36910190672558,170.86477575545354</t>
+          <t>-45.369101907026625,170.8647757980039</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>-45.36968500598503,170.86482797965957</t>
+          <t>-45.36968500068683,170.8648280215434</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -25938,12 +25938,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-45.369099825365446,170.86448160467154</t>
+          <t>-45.36909982506432,170.86448156212114</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>-45.369723618842684,170.86452273007714</t>
+          <t>-45.369723624140754,170.86452268819326</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -25965,12 +25965,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-45.36910139466024,170.8647033772513</t>
+          <t>-45.369101394961305,170.86470341980169</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>-45.369687708064184,170.8648066189028</t>
+          <t>-45.369687702766,170.86480666078663</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -25992,12 +25992,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-45.369101571374635,170.86472835432602</t>
+          <t>-45.36910157107359,170.86472831177565</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>-45.3697008263362,170.86470291449595</t>
+          <t>-45.36970083163435,170.8647028726121</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -26019,7 +26019,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-45.369098502632255,170.86429472342505</t>
+          <t>-45.369098502331056,170.86429468087465</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -26057,12 +26057,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-45.36910102254871,170.86465078497926</t>
+          <t>-45.3691010228498,170.86465082752963</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-45.36970312573271,170.86468473690147</t>
+          <t>-45.369703120434565,170.86468477878535</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -26138,12 +26138,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-45.36910082986008,170.86462355273545</t>
+          <t>-45.369100829559,170.86462351018508</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>-45.369711888843824,170.86461546098732</t>
+          <t>-45.36971189414194,170.86461541910344</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -26165,12 +26165,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-45.36910077385873,170.86461563836468</t>
+          <t>-45.36910077355763,170.8646155958143</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>-45.36971249282937,170.8646106862259</t>
+          <t>-45.36971249812748,170.864610644342</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -26219,12 +26219,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-45.369101054763206,170.86465533787006</t>
+          <t>-45.36910105446212,170.8646552953197</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-45.36969802890976,170.86472502917127</t>
+          <t>-45.36969803420792,170.86472498728742</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -26246,12 +26246,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-45.36909999700923,170.86450585838665</t>
+          <t>-45.3690999967081,170.86450581583628</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-45.36971028351287,170.8646281518002</t>
+          <t>-45.36971028881098,170.86462810991628</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -26273,7 +26273,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-45.36910072719052,170.86460904305574</t>
+          <t>-45.369100727491606,170.8646090856061</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -26293,7 +26293,7 @@
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-45.36970002631506,170.86470923895823</t>
+          <t>-45.369700021016904,170.86470928084208</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -26315,12 +26315,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-45.36910187301078,170.8647709898105</t>
+          <t>-45.36910187270974,170.8647709472601</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>-45.36969677324536,170.8647349556442</t>
+          <t>-45.369696778543506,170.86473491376034</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -26396,12 +26396,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-45.36910018671477,170.86453266512487</t>
+          <t>-45.36910018641366,170.86453262257447</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>-45.36970901196257,170.8646382039287</t>
+          <t>-45.36970901726071,170.8646381620448</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -26423,12 +26423,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-45.36910082263413,170.86462253152632</t>
+          <t>-45.36910082233305,170.86462248897595</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>-45.36971165042842,170.86461734576156</t>
+          <t>-45.36971165572655,170.8646173038777</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -26477,12 +26477,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-45.36910138081188,170.8647014199337</t>
+          <t>-45.36910138051081,170.8647013773833</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>-45.3696918936298,170.86477353066797</t>
+          <t>-45.36969189892798,170.86477348878412</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -26504,12 +26504,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-45.36910031077278,170.86455019588084</t>
+          <t>-45.369100311073886,170.8645502384312</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>-45.369715857131084,170.86458408996523</t>
+          <t>-45.36971585183297,170.8645841318491</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -26531,12 +26531,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-45.369100731706816,170.86460968131144</t>
+          <t>-45.36910073200791,170.8646097238618</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>-45.36970592315127,170.86466262222245</t>
+          <t>-45.369705917853125,170.86466266410633</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -26558,12 +26558,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-45.36910301258205,170.86493208557243</t>
+          <t>-45.36910301228108,170.86493204302207</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>-45.36967962300748,170.8648705336321</t>
+          <t>-45.3696796283057,170.8648704917483</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -26612,7 +26612,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-45.36910168185599,170.86474397031674</t>
+          <t>-45.369101682157016,170.8647440128671</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
@@ -26635,12 +26635,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-45.36910115863113,170.8646700177517</t>
+          <t>-45.36910115833007,170.8646699752013</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-45.36969445264806,170.86475330077027</t>
+          <t>-45.36969445794623,170.86475325888642</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -26662,12 +26662,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-45.36910202051167,170.86479183949885</t>
+          <t>-45.3691020208127,170.86479188204922</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>-45.369686897440864,170.86481302713</t>
+          <t>-45.36968689214267,170.86481306901385</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-45.36910088435549,170.86463125435438</t>
+          <t>-45.369100884656575,170.86463129690475</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -26754,12 +26754,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-45.369101103837274,170.86466227358224</t>
+          <t>-45.36910110413834,170.86466231613264</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>-45.3697032528882,170.8646837316888</t>
+          <t>-45.36970324759005,170.86468377357266</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -26804,12 +26804,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-45.36910127002364,170.86468576139302</t>
+          <t>-45.3691012703247,170.8646858039434</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>-45.36969824613431,170.8647233119333</t>
+          <t>-45.36969824083614,170.86472335381714</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -26831,12 +26831,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-45.3691006811241,170.86460253284758</t>
+          <t>-45.36910068142519,170.86460257539795</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>-45.3696964977408,170.86473713360442</t>
+          <t>-45.369696492442635,170.86473717548827</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -26858,12 +26858,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-45.36910090211908,170.86463376482683</t>
+          <t>-45.369100901818,170.86463372227647</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>-45.369691528055476,170.86477642065321</t>
+          <t>-45.36969153335364,170.86477637876936</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -26885,12 +26885,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-45.3691000587395,170.86451458121414</t>
+          <t>-45.369100059040626,170.8645146237645</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>-45.36970808478991,170.86464553360545</t>
+          <t>-45.369708079491794,170.86464557548933</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -26958,7 +26958,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-45.36910570017886,170.8653121456803</t>
+          <t>-45.36910570047967,170.8653121882307</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -26977,12 +26977,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-45.36910162736818,170.86473626869733</t>
+          <t>-45.36910162706713,170.86473622614693</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>-45.36969577189208,170.8647428716919</t>
+          <t>-45.369695777190245,170.86474282980808</t>
         </is>
       </c>
       <c r="D359" t="inlineStr"/>
@@ -27000,12 +27000,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-45.369100870505875,170.86462929703686</t>
+          <t>-45.3691008702048,170.8646292544865</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>-45.36970297208649,170.8646859515334</t>
+          <t>-45.36970297738464,170.86468590964955</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -27027,12 +27027,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-45.369100313482754,170.86455057883424</t>
+          <t>-45.36910031378385,170.8645506213846</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>-45.36971026232036,170.86462831933565</t>
+          <t>-45.36971025702224,170.86462836121953</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -27081,12 +27081,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-45.36910050919977,170.8645782365807</t>
+          <t>-45.36910050889867,170.86457819403032</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>-45.369714622671495,170.86459384890847</t>
+          <t>-45.36971462796961,170.8645938070246</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -27108,12 +27108,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-45.36910073953505,170.86461078762133</t>
+          <t>-45.369100739233964,170.86461074507096</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>-45.36971212725919,170.8646135762131</t>
+          <t>-45.369712132557304,170.8646135343292</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -27135,12 +27135,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-45.36910163910869,170.86473792816227</t>
+          <t>-45.36910163880765,170.8647378856119</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>-45.369686712004096,170.86481449306433</t>
+          <t>-45.369686717302294,170.8648144511805</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -27162,12 +27162,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-45.36910082293521,170.86462257407672</t>
+          <t>-45.36910082323628,170.8646226166271</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>-45.36967022395119,170.86494483553074</t>
+          <t>-45.36967021865295,170.86494487741456</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -27189,7 +27189,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-45.36910240309319,170.86484592103864</t>
+          <t>-45.3691024027922,170.86484587848827</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>-45.369105309093605,170.8652568301646</t>
+          <t>-45.36910530879276,170.86525678761421</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
@@ -27246,12 +27246,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-45.36910223994984,170.86482285872958</t>
+          <t>-45.36910224025085,170.86482290127995</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>-45.36968678617881,170.8648139066906</t>
+          <t>-45.36968678088063,170.86481394857444</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -27273,12 +27273,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-45.36910078409558,170.8646170850776</t>
+          <t>-45.36910078439666,170.864617127628</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>-45.36969850044594,170.86472130150833</t>
+          <t>-45.369698495147794,170.8647213433922</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -27319,12 +27319,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>-45.36910054201934,170.86458287457208</t>
+          <t>-45.36910054232044,170.86458291712248</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>-45.36972792088281,170.86448872035768</t>
+          <t>-45.369727915584726,170.86448876224156</t>
         </is>
       </c>
       <c r="D373" t="inlineStr"/>
@@ -27342,12 +27342,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>-45.36910231189001,170.86483302827173</t>
+          <t>-45.36910231158901,170.86483298572136</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>-45.36969380097294,170.8647584524835</t>
+          <t>-45.36969380627112,170.86475841059965</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -27396,12 +27396,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-45.36910149852201,170.86471805713336</t>
+          <t>-45.369101498823056,170.86471809968373</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>-45.36970245816629,170.86469001426775</t>
+          <t>-45.36970245286814,170.8646900561516</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -27423,12 +27423,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-45.369099817535975,170.8644804983617</t>
+          <t>-45.36909981783709,170.8644805409121</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>-45.369721738021425,170.8645375988569</t>
+          <t>-45.36972173272332,170.86453764074082</t>
         </is>
       </c>
       <c r="D377" t="inlineStr"/>
@@ -27469,12 +27469,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-45.369100661252205,170.8645997245225</t>
+          <t>-45.36910066155329,170.86459976707286</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>-45.36971147029233,170.86461876981318</t>
+          <t>-45.369711464994204,170.86461881169706</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -27496,12 +27496,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>-45.36910158401839,170.86473014144212</t>
+          <t>-45.36910158371735,170.86473009889176</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>-45.36969041543748,170.8647852162603</t>
+          <t>-45.36969042073567,170.86478517437644</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -27523,12 +27523,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>-45.36910199492506,170.86478822271616</t>
+          <t>-45.36910199462404,170.8647881801658</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>-45.36968723652517,170.8648103465644</t>
+          <t>-45.36968724182336,170.86481030468056</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -27642,12 +27642,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>-45.369100971968564,170.8646436365152</t>
+          <t>-45.369100972269656,170.8646436790656</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>-45.369699422325354,170.8647140137177</t>
+          <t>-45.369699417027206,170.86471405560155</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -27669,12 +27669,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-45.369100479390994,170.86457402409314</t>
+          <t>-45.36910047908988,170.86457398154275</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>-45.36971171400587,170.8646168431551</t>
+          <t>-45.369711719303986,170.86461680127124</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -27773,12 +27773,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-45.36910156053711,170.86472682251224</t>
+          <t>-45.369101560236075,170.86472677996187</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>-45.369695167900964,170.86474764645075</t>
+          <t>-45.36969517319914,170.86474760456687</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -27800,12 +27800,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-45.36910155692459,170.86472631190765</t>
+          <t>-45.36910155662356,170.86472626935728</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>-45.369697281869016,170.86473093479444</t>
+          <t>-45.36969728716717,170.8647308929106</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -27877,12 +27877,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-45.369101393757084,170.86470324960015</t>
+          <t>-45.36910139405815,170.86470329215055</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>-45.36969819845087,170.86472368888798</t>
+          <t>-45.36969819315271,170.86472373077183</t>
         </is>
       </c>
       <c r="D395" t="inlineStr"/>
@@ -27900,12 +27900,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>-45.36909763269021,170.86417183795328</t>
+          <t>-45.36909763299146,170.86417188050362</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>-45.36975349449891,170.86428654671698</t>
+          <t>-45.3697534892009,170.86428658860092</t>
         </is>
       </c>
       <c r="D396" t="inlineStr"/>
@@ -27923,12 +27923,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>-45.36910047668109,170.8645736411397</t>
+          <t>-45.369100476379984,170.86457359858935</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>-45.36971274713901,170.86460867579999</t>
+          <t>-45.36971275243712,170.8646086339161</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -27950,12 +27950,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>-45.36909933058097,170.86441169440326</t>
+          <t>-45.36909933088214,170.86441173695363</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>-45.3697107868346,170.86462417283252</t>
+          <t>-45.369710781536476,170.8646242147164</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -27977,12 +27977,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>-45.369101263701424,170.864684867835</t>
+          <t>-45.36910126400248,170.8646849103854</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>-45.36972391553542,170.8645203845794</t>
+          <t>-45.36972391023735,170.8645204264633</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -28004,12 +28004,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>-45.369098917374544,170.86435331528912</t>
+          <t>-45.36909891707337,170.86435327273875</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>-45.36973121628102,170.86446266857428</t>
+          <t>-45.36973122157907,170.86446262669037</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -28031,12 +28031,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>-45.36910001055984,170.8645077731537</t>
+          <t>-45.369100010258705,170.8645077306033</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>-45.3697181671047,170.86456582859404</t>
+          <t>-45.3697181724028,170.86456578671013</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -28058,12 +28058,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>-45.36910041736415,170.864565258715</t>
+          <t>-45.369100417665265,170.8645653012654</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>-45.3697107868346,170.86462417283252</t>
+          <t>-45.369710781536476,170.8646242147164</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -28139,12 +28139,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>-45.36910051461952,170.86457900248755</t>
+          <t>-45.369100514318426,170.86457895993718</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>-45.36970667548658,170.86465667471373</t>
+          <t>-45.369706680784724,170.86465663282988</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -28193,7 +28193,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>-45.36909947935209,170.86443271428885</t>
+          <t>-45.36909947905094,170.86443267173846</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
@@ -28243,12 +28243,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>-45.369101621046354,170.86473537513928</t>
+          <t>-45.369101620745305,170.8647353325889</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>-45.36970429132431,170.86467552245213</t>
+          <t>-45.36970429662245,170.86467548056828</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -28270,12 +28270,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>-45.369100261691905,170.8645432601691</t>
+          <t>-45.36910026139079,170.86454321761872</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>-45.36970754967863,170.86464976387595</t>
+          <t>-45.36970755497677,170.8646497219921</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -28316,12 +28316,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>-45.36910051371623,170.86457887483638</t>
+          <t>-45.369100513415134,170.864578832286</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>-45.36971586242919,170.86458404808138</t>
+          <t>-45.36971586772729,170.8645840061975</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -28397,12 +28397,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>-45.36910078560099,170.86461729782954</t>
+          <t>-45.36910078529991,170.86461725527914</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>-45.3696936738168,170.86475945769584</t>
+          <t>-45.36969367911496,170.864759415812</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -28424,12 +28424,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>-45.369100451689775,170.86457010945824</t>
+          <t>-45.36910045199087,170.8645701520086</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>-45.36970954707342,170.864633973658</t>
+          <t>-45.36970954177531,170.86463401554187</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -28478,12 +28478,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>-45.369100499564624,170.86457687496858</t>
+          <t>-45.369100499865716,170.86457691751895</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>-45.36970296678835,170.86468599341725</t>
+          <t>-45.369702961490205,170.8646860353011</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -28532,12 +28532,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>-45.36910130765576,170.8646910801908</t>
+          <t>-45.3691013073547,170.86469103764043</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>-45.36969664608941,170.86473596085662</t>
+          <t>-45.36969665138757,170.86473591897277</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -28559,12 +28559,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>-45.369100548944544,170.8645838532308</t>
+          <t>-45.36910054864346,170.86458381068041</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>-45.3697131286034,170.86460566016112</t>
+          <t>-45.36971313390151,170.86460561827724</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -28586,12 +28586,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>-45.369100583269386,170.8645887039741</t>
+          <t>-45.36910058296828,170.8645886614237</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>-45.36972384136225,170.86452097095383</t>
+          <t>-45.36972384666033,170.86452092906993</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -28614,7 +28614,7 @@
       <c r="B423" t="inlineStr"/>
       <c r="C423" t="inlineStr">
         <is>
-          <t>-45.36967963890212,170.86487040798062</t>
+          <t>-45.36967964420033,170.8648703660968</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>-45.36910016172219,170.86452913344345</t>
+          <t>-45.369100162023294,170.86452917599382</t>
         </is>
       </c>
       <c r="C424" t="inlineStr"/>
@@ -28655,12 +28655,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>-45.369101055666405,170.86465546552122</t>
+          <t>-45.369101055365334,170.86465542297083</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>-45.369708837124335,170.8646395860963</t>
+          <t>-45.369708842422455,170.86463954421245</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -28682,12 +28682,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>-45.369102079209945,170.8648001368239</t>
+          <t>-45.36910207951097,170.86480017937427</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>-45.36968866173822,170.8647990798117</t>
+          <t>-45.369688656440026,170.86479912169557</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -28782,12 +28782,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>-45.36909990847782,170.86449334857565</t>
+          <t>-45.369099908176686,170.86449330602528</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>-45.369726241392996,170.86450199755168</t>
+          <t>-45.36972624669106,170.8645019556678</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>-45.36910100629086,170.86464848725868</t>
+          <t>-45.36910100659193,170.86464852980905</t>
         </is>
       </c>
       <c r="C433" t="inlineStr"/>
@@ -28924,12 +28924,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>-45.36910059410875,170.86459023578777</t>
+          <t>-45.36910059380766,170.86459019323738</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>-45.36970497478448,170.86467011943392</t>
+          <t>-45.36970498008262,170.86467007755007</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -29005,12 +29005,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>-45.36909962781817,170.86445369162433</t>
+          <t>-45.36909962811932,170.8644537341747</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>-45.369719194936046,170.86455770312108</t>
+          <t>-45.36971918963795,170.86455774500496</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -29032,12 +29032,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>-45.36910168787671,170.8647448213244</t>
+          <t>-45.369101687575665,170.86474477877402</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>-45.369692783723515,170.86476649418202</t>
+          <t>-45.36969278902169,170.86476645229817</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -29059,12 +29059,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>-45.36910091476431,170.86463555194283</t>
+          <t>-45.36910091446323,170.86463550939246</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>-45.36971247693501,170.8646108118775</t>
+          <t>-45.36971248223313,170.86461076999362</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -29159,12 +29159,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>-45.36909900953541,170.8643663357036</t>
+          <t>-45.36909900923424,170.86436629315324</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>-45.36973034210041,170.8644695794174</t>
+          <t>-45.36973034739847,170.8644695375335</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -29186,12 +29186,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>-45.369101149900274,170.86466878379065</t>
+          <t>-45.369101150201345,170.86466882634102</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>-45.369703078049405,170.8646851138562</t>
+          <t>-45.369703072751264,170.86468515574006</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -29286,12 +29286,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>-45.36910062692784,170.86459487377917</t>
+          <t>-45.36910062722894,170.86459491632957</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>-45.36971261468608,170.8646097228968</t>
+          <t>-45.369712609387946,170.86460976478068</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -29313,12 +29313,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>-45.36910126159401,170.86468456998233</t>
+          <t>-45.36910126129296,170.86468452743196</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>-45.369692116153274,170.86477177154651</t>
+          <t>-45.36969212145145,170.86477172966264</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -29340,12 +29340,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>-45.36910122757432,170.86467976178915</t>
+          <t>-45.36910122787539,170.86467980433954</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>-45.369698993174666,170.86471740630992</t>
+          <t>-45.3696989878765,170.86471744819377</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -29367,12 +29367,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>-45.36910113815877,170.86466712432576</t>
+          <t>-45.36910113845983,170.86466716687613</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>-45.36969877065204,170.86471916543178</t>
+          <t>-45.36969876535387,170.86471920731563</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -29394,12 +29394,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>-45.36910184441322,170.86476694752398</t>
+          <t>-45.369101844714244,170.86476699007437</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>-45.36969859581281,170.86472054759898</t>
+          <t>-45.369698590514645,170.86472058948283</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -29467,12 +29467,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>-45.36909976604176,170.86447322224726</t>
+          <t>-45.3690997663429,170.86447326479762</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>-45.36970881593183,170.8646397536318</t>
+          <t>-45.369708810633696,170.86463979551567</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -29494,12 +29494,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>-45.36910160057563,170.86473248171322</t>
+          <t>-45.369101600876675,170.8647325242636</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>-45.36969621163988,170.86473939533235</t>
+          <t>-45.369696206341715,170.8647394372162</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -29521,12 +29521,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>-45.369100541116055,170.86458274692095</t>
+          <t>-45.369100541417154,170.8645827894713</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>-45.36970994443287,170.86463083236782</t>
+          <t>-45.369709939134744,170.86463087425167</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -29548,12 +29548,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>-45.3691006323475,170.86459563968603</t>
+          <t>-45.369100632648575,170.8645956822364</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>-45.3697069403933,170.8646545805205</t>
+          <t>-45.369706935095174,170.86465462240437</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -29629,12 +29629,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>-45.36910125978766,170.86468431468003</t>
+          <t>-45.369101259486605,170.86468427212964</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>-45.36970381449147,170.8646792919996</t>
+          <t>-45.36970381978961,170.86467925011576</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -29656,12 +29656,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>-45.369099184817685,170.86439110002166</t>
+          <t>-45.36909918451652,170.8643910574713</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>-45.36973590506072,170.8644256013213</t>
+          <t>-45.369735910358784,170.8644255594374</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -29764,12 +29764,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>-45.36910047848769,170.864573896442</t>
+          <t>-45.3691004781866,170.86457385389164</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>-45.36973065998431,170.86446706638355</t>
+          <t>-45.36973066528238,170.86446702449967</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -29791,12 +29791,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>-45.36910105386,170.86465521021893</t>
+          <t>-45.36910105355893,170.86465516766856</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>-45.36969680503432,170.8647347043411</t>
+          <t>-45.36969681033249,170.86473466245724</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -29819,7 +29819,7 @@
       <c r="B470" t="inlineStr"/>
       <c r="C470" t="inlineStr">
         <is>
-          <t>-45.36966218120247,170.86500841515294</t>
+          <t>-45.36966217590421,170.86500845703677</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -29841,12 +29841,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>-45.369100469755786,170.864572662481</t>
+          <t>-45.36910047005689,170.86457270503138</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>-45.369702187960755,170.86469215034455</t>
+          <t>-45.3697021826626,170.8646921922284</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -29868,12 +29868,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>-45.36910091958153,170.86463623274895</t>
+          <t>-45.369100919882605,170.86463627529932</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>-45.369698627601764,170.86472029629584</t>
+          <t>-45.369698622303595,170.8647203381797</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -29895,12 +29895,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>-45.36910087441991,170.8646298501918</t>
+          <t>-45.369100874720985,170.8646298927422</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>-45.36970233101075,170.86469101948038</t>
+          <t>-45.3697023257126,170.8646910613642</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -29922,12 +29922,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>-45.36910077656848,170.8646160213181</t>
+          <t>-45.369100776267395,170.86461597876772</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>-45.36971826247052,170.86456507468418</t>
+          <t>-45.36971826776862,170.8645650328003</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -30049,12 +30049,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>-45.369099884086275,170.86448990199509</t>
+          <t>-45.36909988378514,170.8644898594447</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>-45.36972110754851,170.86454258303922</t>
+          <t>-45.3697211128466,170.86454254115534</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -30076,12 +30076,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>-45.369102323629114,170.86483468773676</t>
+          <t>-45.36910232332811,170.8648346451864</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>-45.36969044722657,170.86478496495724</t>
+          <t>-45.369690452524765,170.86478492307336</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -30103,12 +30103,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>-45.369101120998046,170.864664698954</t>
+          <t>-45.36910112129912,170.86466474150436</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>-45.369701027665954,170.8647013229094</t>
+          <t>-45.36970102236781,170.86470136479326</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -30130,12 +30130,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>-45.36910131849375,170.86469261200455</t>
+          <t>-45.369101318192705,170.86469256945418</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>-45.36969918920647,170.86471585660732</t>
+          <t>-45.36969919450462,170.86471581472347</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -30157,12 +30157,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>-45.369099771462224,170.86447398815403</t>
+          <t>-45.369099771763366,170.8644740307044</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>-45.36974332231456,170.86436696384732</t>
+          <t>-45.36974331701652,170.86436700573125</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -30238,12 +30238,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>-45.3691006919633,170.86460406466125</t>
+          <t>-45.36910069226438,170.86460410721162</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>-45.369718877050126,170.864560216154</t>
+          <t>-45.369718871752035,170.86456025803787</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -30265,12 +30265,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>-45.36909972960406,170.86446807365164</t>
+          <t>-45.36909972930292,170.86446803110127</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>-45.369715512754034,170.86458681241726</t>
+          <t>-45.36971551805214,170.86458677053338</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -30319,12 +30319,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>-45.36910107734335,170.86465852914867</t>
+          <t>-45.36910107704228,170.8646584865983</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>-45.369702829036555,170.8646870823976</t>
+          <t>-45.36970283433471,170.86468704051376</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -30346,12 +30346,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>-45.3691004649382,170.86457198167494</t>
+          <t>-45.3691004646371,170.86457193912457</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>-45.36969957067372,170.8647128409698</t>
+          <t>-45.36969957597188,170.86471279908594</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -30373,12 +30373,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>-45.36910203556256,170.8647939670181</t>
+          <t>-45.36910203526155,170.8647939244677</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>-45.36968920745147,170.86479476577614</t>
+          <t>-45.36968921274964,170.86479472389232</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -30419,12 +30419,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>-45.369102078908924,170.8648000942735</t>
+          <t>-45.369102078607916,170.86480005172314</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>-45.36968598085326,170.8648202730338</t>
+          <t>-45.36968598615147,170.86482023114996</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -30527,12 +30527,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>-45.36909978290541,170.86447560506835</t>
+          <t>-45.36909978260429,170.86447556251798</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>-45.36972636854684,170.8645009923383</t>
+          <t>-45.369726373844934,170.86450095045439</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -30554,12 +30554,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>-45.36909979103608,170.86447675392853</t>
+          <t>-45.36909979073495,170.86447671137816</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>-45.369716736616795,170.8645771372415</t>
+          <t>-45.36971674191491,170.86457709535762</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -30581,12 +30581,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>-45.36910104031187,170.86465329545175</t>
+          <t>-45.369101040010804,170.86465325290138</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>-45.36969507253392,170.86474840036</t>
+          <t>-45.3696950778321,170.86474835847616</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -30608,12 +30608,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>-45.3691015292286,170.8647223972724</t>
+          <t>-45.36910152952964,170.8647224398228</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>-45.36969492418519,170.86474957310776</t>
+          <t>-45.36969491888703,170.86474961499164</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -17504,9 +17504,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I2" t="n">
         <v>-0.1332054730206597</v>
       </c>
@@ -17577,13 +17583,13 @@
         <v>0.4956783597469588</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0537</v>
+        <v>0.1023</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0626</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1078317515176713</v>
@@ -17655,13 +17661,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0485</v>
+        <v>0.0393</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0569</v>
+        <v>0.089</v>
       </c>
       <c r="I4" t="n">
         <v>0.0629586272003089</v>

--- a/data/nzd0486/nzd0486.xlsx
+++ b/data/nzd0486/nzd0486.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E502"/>
+  <dimension ref="A1:E503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10977,6 +10977,27 @@
         <v>360.25</v>
       </c>
       <c r="E502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>345.94</v>
+      </c>
+      <c r="C503" t="n">
+        <v>349.66</v>
+      </c>
+      <c r="D503" t="n">
+        <v>359.9</v>
+      </c>
+      <c r="E503" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10993,7 +11014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B666"/>
+  <dimension ref="A1:B667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17661,6 +17682,16 @@
       </c>
       <c r="B666" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -17834,28 +17865,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1076796985942037</v>
+        <v>-0.108290595616003</v>
       </c>
       <c r="J2" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K2" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04474283383040312</v>
+        <v>0.04539253309259139</v>
       </c>
       <c r="M2" t="n">
-        <v>2.726859307354765</v>
+        <v>2.724392181631645</v>
       </c>
       <c r="N2" t="n">
-        <v>11.68853076739455</v>
+        <v>11.66949683434727</v>
       </c>
       <c r="O2" t="n">
-        <v>3.41884933382484</v>
+        <v>3.416064524324339</v>
       </c>
       <c r="P2" t="n">
-        <v>350.2240837005306</v>
+        <v>350.2311308922591</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17912,28 +17943,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1122894671326944</v>
+        <v>-0.1122247265893415</v>
       </c>
       <c r="J3" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K3" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06362579289243964</v>
+        <v>0.06380401702443084</v>
       </c>
       <c r="M3" t="n">
-        <v>2.379071191916741</v>
+        <v>2.374657820328688</v>
       </c>
       <c r="N3" t="n">
-        <v>8.761727081576284</v>
+        <v>8.744321173446743</v>
       </c>
       <c r="O3" t="n">
-        <v>2.960021466404641</v>
+        <v>2.957079838869208</v>
       </c>
       <c r="P3" t="n">
-        <v>352.4461969304905</v>
+        <v>352.4454500959091</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17984,34 +18015,34 @@
         <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0392</v>
+        <v>0.0393</v>
       </c>
       <c r="H4" t="n">
         <v>0.0883</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06102711605095974</v>
+        <v>0.06071628399282914</v>
       </c>
       <c r="J4" t="n">
+        <v>502</v>
+      </c>
+      <c r="K4" t="n">
         <v>501</v>
       </c>
-      <c r="K4" t="n">
-        <v>500</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.01576013736710202</v>
+        <v>0.01566471202669917</v>
       </c>
       <c r="M4" t="n">
-        <v>2.652694837896412</v>
+        <v>2.648807939968261</v>
       </c>
       <c r="N4" t="n">
-        <v>10.99960373551122</v>
+        <v>10.97875140182093</v>
       </c>
       <c r="O4" t="n">
-        <v>3.316565050697969</v>
+        <v>3.313419895186986</v>
       </c>
       <c r="P4" t="n">
-        <v>359.0433504833628</v>
+        <v>359.0469348040978</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18049,7 +18080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E502"/>
+  <dimension ref="A1:E503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31607,6 +31638,33 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-45.36910077807389,170.86461623407</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-45.369704837032835,170.86467120841434</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-45.37024209633042,170.86512309329555</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
